--- a/client/Assets/Excel/TB_Role.xlsx
+++ b/client/Assets/Excel/TB_Role.xlsx
@@ -110,12 +110,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -123,23 +175,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,45 +245,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -215,43 +252,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -310,169 +310,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,11 +494,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,54 +589,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,145 +597,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1295,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>

--- a/client/Assets/Excel/TB_Role.xlsx
+++ b/client/Assets/Excel/TB_Role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>Server</t>
   </si>
@@ -69,6 +69,12 @@
     <t>config</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>是否可为空</t>
   </si>
   <si>
@@ -88,6 +94,18 @@
   </si>
   <si>
     <t>中文'</t>
+  </si>
+  <si>
+    <t>特殊字符/ // \ \\ " "" . ,a</t>
+  </si>
+  <si>
+    <t>这行不导出，因为前面第一列没有*</t>
+  </si>
+  <si>
+    <t>给我给我个</t>
+  </si>
+  <si>
+    <t>哈哈哈哈</t>
   </si>
 </sst>
 </file>
@@ -97,8 +115,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -109,22 +127,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,20 +159,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -160,8 +172,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,49 +233,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,19 +257,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -310,175 +328,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,15 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,26 +527,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +539,26 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +579,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -580,15 +607,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,7 +1151,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1141,14 +1159,16 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="6" max="6" width="41.375" customWidth="1"/>
     <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
+    <col min="8" max="10" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:20">
       <c r="A2" s="2" t="s">
@@ -1176,7 +1196,9 @@
         <v>2</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
@@ -1213,8 +1235,12 @@
       <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -1251,8 +1277,12 @@
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -1264,9 +1294,9 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:8">
+    <row r="5" s="5" customFormat="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1289,13 +1319,19 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:8">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -1315,10 +1351,16 @@
       <c r="H6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:8">
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="7" customFormat="1" spans="1:10">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
@@ -1335,8 +1377,14 @@
       <c r="H7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -1344,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -1353,7 +1401,7 @@
         <v>1.8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" s="8">
         <v>5.44656566565656</v>
@@ -1361,8 +1409,14 @@
       <c r="H8" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -1379,7 +1433,7 @@
         <v>1.8</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" s="8">
         <v>5.44656566565656</v>
@@ -1387,33 +1441,106 @@
       <c r="H9" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I9" s="8">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="8">
+        <v>6</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4</v>
+      </c>
+      <c r="I10" s="8">
+        <v>4</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="13"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8">
+        <v>34</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="13"/>

--- a/client/Assets/Excel/TB_Role.xlsx
+++ b/client/Assets/Excel/TB_Role.xlsx
@@ -113,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,6 +124,37 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,6 +166,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -143,10 +210,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,7 +235,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,59 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,37 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -328,13 +328,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,157 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +507,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,59 +545,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,6 +564,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,6 +587,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/client/Assets/Excel/TB_Role.xlsx
+++ b/client/Assets/Excel/TB_Role.xlsx
@@ -27,6 +27,36 @@
     <t>*</t>
   </si>
   <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>weigth</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>数据类型</t>
   </si>
   <si>
@@ -43,36 +73,6 @@
   </si>
   <si>
     <t>DOUBLE</t>
-  </si>
-  <si>
-    <t>变量名</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>weigth</t>
-  </si>
-  <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>是否可为空</t>
@@ -113,9 +113,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -127,6 +127,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -135,6 +158,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -143,6 +173,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -151,8 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,105 +265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,18 +292,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,7 +316,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,13 +328,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,13 +436,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,139 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +507,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,21 +583,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -560,39 +593,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1151,7 +1151,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1221,25 +1221,25 @@
         <v>5</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
@@ -1254,34 +1254,34 @@
     </row>
     <row r="4" s="4" customFormat="1" spans="1:20">
       <c r="A4" s="12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="I4" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -1589,9 +1589,6 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="8"/>

--- a/client/Assets/Excel/TB_Role.xlsx
+++ b/client/Assets/Excel/TB_Role.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420">
   <si>
     <t>Server</t>
   </si>
@@ -102,10 +102,1180 @@
     <t>这行不导出，因为前面第一列没有*</t>
   </si>
   <si>
-    <t>给我给我个</t>
-  </si>
-  <si>
-    <t>哈哈哈哈</t>
+    <t>给我给我个1</t>
+  </si>
+  <si>
+    <t>哈哈哈哈1</t>
+  </si>
+  <si>
+    <t>给我给我个2</t>
+  </si>
+  <si>
+    <t>哈哈哈哈2</t>
+  </si>
+  <si>
+    <t>给我给我个3</t>
+  </si>
+  <si>
+    <t>哈哈哈哈3</t>
+  </si>
+  <si>
+    <t>给我给我个4</t>
+  </si>
+  <si>
+    <t>哈哈哈哈4</t>
+  </si>
+  <si>
+    <t>给我给我个5</t>
+  </si>
+  <si>
+    <t>哈哈哈哈5</t>
+  </si>
+  <si>
+    <t>给我给我个6</t>
+  </si>
+  <si>
+    <t>哈哈哈哈6</t>
+  </si>
+  <si>
+    <t>给我给我个7</t>
+  </si>
+  <si>
+    <t>哈哈哈哈7</t>
+  </si>
+  <si>
+    <t>给我给我个8</t>
+  </si>
+  <si>
+    <t>哈哈哈哈8</t>
+  </si>
+  <si>
+    <t>给我给我个9</t>
+  </si>
+  <si>
+    <t>哈哈哈哈9</t>
+  </si>
+  <si>
+    <t>给我给我个10</t>
+  </si>
+  <si>
+    <t>哈哈哈哈10</t>
+  </si>
+  <si>
+    <t>给我给我个11</t>
+  </si>
+  <si>
+    <t>哈哈哈哈11</t>
+  </si>
+  <si>
+    <t>给我给我个12</t>
+  </si>
+  <si>
+    <t>哈哈哈哈12</t>
+  </si>
+  <si>
+    <t>给我给我个13</t>
+  </si>
+  <si>
+    <t>哈哈哈哈13</t>
+  </si>
+  <si>
+    <t>给我给我个14</t>
+  </si>
+  <si>
+    <t>哈哈哈哈14</t>
+  </si>
+  <si>
+    <t>给我给我个15</t>
+  </si>
+  <si>
+    <t>哈哈哈哈15</t>
+  </si>
+  <si>
+    <t>给我给我个16</t>
+  </si>
+  <si>
+    <t>哈哈哈哈16</t>
+  </si>
+  <si>
+    <t>给我给我个17</t>
+  </si>
+  <si>
+    <t>哈哈哈哈17</t>
+  </si>
+  <si>
+    <t>给我给我个18</t>
+  </si>
+  <si>
+    <t>哈哈哈哈18</t>
+  </si>
+  <si>
+    <t>给我给我个19</t>
+  </si>
+  <si>
+    <t>哈哈哈哈19</t>
+  </si>
+  <si>
+    <t>给我给我个20</t>
+  </si>
+  <si>
+    <t>哈哈哈哈20</t>
+  </si>
+  <si>
+    <t>给我给我个21</t>
+  </si>
+  <si>
+    <t>哈哈哈哈21</t>
+  </si>
+  <si>
+    <t>给我给我个22</t>
+  </si>
+  <si>
+    <t>哈哈哈哈22</t>
+  </si>
+  <si>
+    <t>给我给我个23</t>
+  </si>
+  <si>
+    <t>哈哈哈哈23</t>
+  </si>
+  <si>
+    <t>给我给我个24</t>
+  </si>
+  <si>
+    <t>哈哈哈哈24</t>
+  </si>
+  <si>
+    <t>给我给我个25</t>
+  </si>
+  <si>
+    <t>哈哈哈哈25</t>
+  </si>
+  <si>
+    <t>给我给我个26</t>
+  </si>
+  <si>
+    <t>哈哈哈哈26</t>
+  </si>
+  <si>
+    <t>给我给我个27</t>
+  </si>
+  <si>
+    <t>哈哈哈哈27</t>
+  </si>
+  <si>
+    <t>给我给我个28</t>
+  </si>
+  <si>
+    <t>哈哈哈哈28</t>
+  </si>
+  <si>
+    <t>给我给我个29</t>
+  </si>
+  <si>
+    <t>哈哈哈哈29</t>
+  </si>
+  <si>
+    <t>给我给我个30</t>
+  </si>
+  <si>
+    <t>哈哈哈哈30</t>
+  </si>
+  <si>
+    <t>给我给我个31</t>
+  </si>
+  <si>
+    <t>哈哈哈哈31</t>
+  </si>
+  <si>
+    <t>给我给我个32</t>
+  </si>
+  <si>
+    <t>哈哈哈哈32</t>
+  </si>
+  <si>
+    <t>给我给我个33</t>
+  </si>
+  <si>
+    <t>哈哈哈哈33</t>
+  </si>
+  <si>
+    <t>给我给我个34</t>
+  </si>
+  <si>
+    <t>哈哈哈哈34</t>
+  </si>
+  <si>
+    <t>给我给我个35</t>
+  </si>
+  <si>
+    <t>哈哈哈哈35</t>
+  </si>
+  <si>
+    <t>给我给我个36</t>
+  </si>
+  <si>
+    <t>哈哈哈哈36</t>
+  </si>
+  <si>
+    <t>给我给我个37</t>
+  </si>
+  <si>
+    <t>哈哈哈哈37</t>
+  </si>
+  <si>
+    <t>给我给我个38</t>
+  </si>
+  <si>
+    <t>哈哈哈哈38</t>
+  </si>
+  <si>
+    <t>给我给我个39</t>
+  </si>
+  <si>
+    <t>哈哈哈哈39</t>
+  </si>
+  <si>
+    <t>给我给我个40</t>
+  </si>
+  <si>
+    <t>哈哈哈哈40</t>
+  </si>
+  <si>
+    <t>给我给我个41</t>
+  </si>
+  <si>
+    <t>哈哈哈哈41</t>
+  </si>
+  <si>
+    <t>给我给我个42</t>
+  </si>
+  <si>
+    <t>哈哈哈哈42</t>
+  </si>
+  <si>
+    <t>给我给我个43</t>
+  </si>
+  <si>
+    <t>哈哈哈哈43</t>
+  </si>
+  <si>
+    <t>给我给我个44</t>
+  </si>
+  <si>
+    <t>哈哈哈哈44</t>
+  </si>
+  <si>
+    <t>给我给我个45</t>
+  </si>
+  <si>
+    <t>哈哈哈哈45</t>
+  </si>
+  <si>
+    <t>给我给我个46</t>
+  </si>
+  <si>
+    <t>哈哈哈哈46</t>
+  </si>
+  <si>
+    <t>给我给我个47</t>
+  </si>
+  <si>
+    <t>哈哈哈哈47</t>
+  </si>
+  <si>
+    <t>给我给我个48</t>
+  </si>
+  <si>
+    <t>哈哈哈哈48</t>
+  </si>
+  <si>
+    <t>给我给我个49</t>
+  </si>
+  <si>
+    <t>哈哈哈哈49</t>
+  </si>
+  <si>
+    <t>给我给我个50</t>
+  </si>
+  <si>
+    <t>哈哈哈哈50</t>
+  </si>
+  <si>
+    <t>给我给我个51</t>
+  </si>
+  <si>
+    <t>哈哈哈哈51</t>
+  </si>
+  <si>
+    <t>给我给我个52</t>
+  </si>
+  <si>
+    <t>哈哈哈哈52</t>
+  </si>
+  <si>
+    <t>给我给我个53</t>
+  </si>
+  <si>
+    <t>哈哈哈哈53</t>
+  </si>
+  <si>
+    <t>给我给我个54</t>
+  </si>
+  <si>
+    <t>哈哈哈哈54</t>
+  </si>
+  <si>
+    <t>给我给我个55</t>
+  </si>
+  <si>
+    <t>哈哈哈哈55</t>
+  </si>
+  <si>
+    <t>给我给我个56</t>
+  </si>
+  <si>
+    <t>哈哈哈哈56</t>
+  </si>
+  <si>
+    <t>给我给我个57</t>
+  </si>
+  <si>
+    <t>哈哈哈哈57</t>
+  </si>
+  <si>
+    <t>给我给我个58</t>
+  </si>
+  <si>
+    <t>哈哈哈哈58</t>
+  </si>
+  <si>
+    <t>给我给我个59</t>
+  </si>
+  <si>
+    <t>哈哈哈哈59</t>
+  </si>
+  <si>
+    <t>给我给我个60</t>
+  </si>
+  <si>
+    <t>哈哈哈哈60</t>
+  </si>
+  <si>
+    <t>给我给我个61</t>
+  </si>
+  <si>
+    <t>哈哈哈哈61</t>
+  </si>
+  <si>
+    <t>给我给我个62</t>
+  </si>
+  <si>
+    <t>哈哈哈哈62</t>
+  </si>
+  <si>
+    <t>给我给我个63</t>
+  </si>
+  <si>
+    <t>哈哈哈哈63</t>
+  </si>
+  <si>
+    <t>给我给我个64</t>
+  </si>
+  <si>
+    <t>哈哈哈哈64</t>
+  </si>
+  <si>
+    <t>给我给我个65</t>
+  </si>
+  <si>
+    <t>哈哈哈哈65</t>
+  </si>
+  <si>
+    <t>给我给我个66</t>
+  </si>
+  <si>
+    <t>哈哈哈哈66</t>
+  </si>
+  <si>
+    <t>给我给我个67</t>
+  </si>
+  <si>
+    <t>哈哈哈哈67</t>
+  </si>
+  <si>
+    <t>给我给我个68</t>
+  </si>
+  <si>
+    <t>哈哈哈哈68</t>
+  </si>
+  <si>
+    <t>给我给我个69</t>
+  </si>
+  <si>
+    <t>哈哈哈哈69</t>
+  </si>
+  <si>
+    <t>给我给我个70</t>
+  </si>
+  <si>
+    <t>哈哈哈哈70</t>
+  </si>
+  <si>
+    <t>给我给我个71</t>
+  </si>
+  <si>
+    <t>哈哈哈哈71</t>
+  </si>
+  <si>
+    <t>给我给我个72</t>
+  </si>
+  <si>
+    <t>哈哈哈哈72</t>
+  </si>
+  <si>
+    <t>给我给我个73</t>
+  </si>
+  <si>
+    <t>哈哈哈哈73</t>
+  </si>
+  <si>
+    <t>给我给我个74</t>
+  </si>
+  <si>
+    <t>哈哈哈哈74</t>
+  </si>
+  <si>
+    <t>给我给我个75</t>
+  </si>
+  <si>
+    <t>哈哈哈哈75</t>
+  </si>
+  <si>
+    <t>给我给我个76</t>
+  </si>
+  <si>
+    <t>哈哈哈哈76</t>
+  </si>
+  <si>
+    <t>给我给我个77</t>
+  </si>
+  <si>
+    <t>哈哈哈哈77</t>
+  </si>
+  <si>
+    <t>给我给我个78</t>
+  </si>
+  <si>
+    <t>哈哈哈哈78</t>
+  </si>
+  <si>
+    <t>给我给我个79</t>
+  </si>
+  <si>
+    <t>哈哈哈哈79</t>
+  </si>
+  <si>
+    <t>给我给我个80</t>
+  </si>
+  <si>
+    <t>哈哈哈哈80</t>
+  </si>
+  <si>
+    <t>给我给我个81</t>
+  </si>
+  <si>
+    <t>哈哈哈哈81</t>
+  </si>
+  <si>
+    <t>给我给我个82</t>
+  </si>
+  <si>
+    <t>哈哈哈哈82</t>
+  </si>
+  <si>
+    <t>给我给我个83</t>
+  </si>
+  <si>
+    <t>哈哈哈哈83</t>
+  </si>
+  <si>
+    <t>给我给我个84</t>
+  </si>
+  <si>
+    <t>哈哈哈哈84</t>
+  </si>
+  <si>
+    <t>给我给我个85</t>
+  </si>
+  <si>
+    <t>哈哈哈哈85</t>
+  </si>
+  <si>
+    <t>给我给我个86</t>
+  </si>
+  <si>
+    <t>哈哈哈哈86</t>
+  </si>
+  <si>
+    <t>给我给我个87</t>
+  </si>
+  <si>
+    <t>哈哈哈哈87</t>
+  </si>
+  <si>
+    <t>给我给我个88</t>
+  </si>
+  <si>
+    <t>哈哈哈哈88</t>
+  </si>
+  <si>
+    <t>给我给我个89</t>
+  </si>
+  <si>
+    <t>哈哈哈哈89</t>
+  </si>
+  <si>
+    <t>给我给我个90</t>
+  </si>
+  <si>
+    <t>哈哈哈哈90</t>
+  </si>
+  <si>
+    <t>给我给我个91</t>
+  </si>
+  <si>
+    <t>哈哈哈哈91</t>
+  </si>
+  <si>
+    <t>给我给我个92</t>
+  </si>
+  <si>
+    <t>哈哈哈哈92</t>
+  </si>
+  <si>
+    <t>给我给我个93</t>
+  </si>
+  <si>
+    <t>哈哈哈哈93</t>
+  </si>
+  <si>
+    <t>给我给我个94</t>
+  </si>
+  <si>
+    <t>哈哈哈哈94</t>
+  </si>
+  <si>
+    <t>给我给我个95</t>
+  </si>
+  <si>
+    <t>哈哈哈哈95</t>
+  </si>
+  <si>
+    <t>给我给我个96</t>
+  </si>
+  <si>
+    <t>哈哈哈哈96</t>
+  </si>
+  <si>
+    <t>给我给我个97</t>
+  </si>
+  <si>
+    <t>哈哈哈哈97</t>
+  </si>
+  <si>
+    <t>给我给我个98</t>
+  </si>
+  <si>
+    <t>哈哈哈哈98</t>
+  </si>
+  <si>
+    <t>给我给我个99</t>
+  </si>
+  <si>
+    <t>哈哈哈哈99</t>
+  </si>
+  <si>
+    <t>给我给我个100</t>
+  </si>
+  <si>
+    <t>哈哈哈哈100</t>
+  </si>
+  <si>
+    <t>给我给我个101</t>
+  </si>
+  <si>
+    <t>哈哈哈哈101</t>
+  </si>
+  <si>
+    <t>给我给我个102</t>
+  </si>
+  <si>
+    <t>哈哈哈哈102</t>
+  </si>
+  <si>
+    <t>给我给我个103</t>
+  </si>
+  <si>
+    <t>哈哈哈哈103</t>
+  </si>
+  <si>
+    <t>给我给我个104</t>
+  </si>
+  <si>
+    <t>哈哈哈哈104</t>
+  </si>
+  <si>
+    <t>给我给我个105</t>
+  </si>
+  <si>
+    <t>哈哈哈哈105</t>
+  </si>
+  <si>
+    <t>给我给我个106</t>
+  </si>
+  <si>
+    <t>哈哈哈哈106</t>
+  </si>
+  <si>
+    <t>给我给我个107</t>
+  </si>
+  <si>
+    <t>哈哈哈哈107</t>
+  </si>
+  <si>
+    <t>给我给我个108</t>
+  </si>
+  <si>
+    <t>哈哈哈哈108</t>
+  </si>
+  <si>
+    <t>给我给我个109</t>
+  </si>
+  <si>
+    <t>哈哈哈哈109</t>
+  </si>
+  <si>
+    <t>给我给我个110</t>
+  </si>
+  <si>
+    <t>哈哈哈哈110</t>
+  </si>
+  <si>
+    <t>给我给我个111</t>
+  </si>
+  <si>
+    <t>哈哈哈哈111</t>
+  </si>
+  <si>
+    <t>给我给我个112</t>
+  </si>
+  <si>
+    <t>哈哈哈哈112</t>
+  </si>
+  <si>
+    <t>给我给我个113</t>
+  </si>
+  <si>
+    <t>哈哈哈哈113</t>
+  </si>
+  <si>
+    <t>给我给我个114</t>
+  </si>
+  <si>
+    <t>哈哈哈哈114</t>
+  </si>
+  <si>
+    <t>给我给我个115</t>
+  </si>
+  <si>
+    <t>哈哈哈哈115</t>
+  </si>
+  <si>
+    <t>给我给我个116</t>
+  </si>
+  <si>
+    <t>哈哈哈哈116</t>
+  </si>
+  <si>
+    <t>给我给我个117</t>
+  </si>
+  <si>
+    <t>哈哈哈哈117</t>
+  </si>
+  <si>
+    <t>给我给我个118</t>
+  </si>
+  <si>
+    <t>哈哈哈哈118</t>
+  </si>
+  <si>
+    <t>给我给我个119</t>
+  </si>
+  <si>
+    <t>哈哈哈哈119</t>
+  </si>
+  <si>
+    <t>给我给我个120</t>
+  </si>
+  <si>
+    <t>哈哈哈哈120</t>
+  </si>
+  <si>
+    <t>给我给我个121</t>
+  </si>
+  <si>
+    <t>哈哈哈哈121</t>
+  </si>
+  <si>
+    <t>给我给我个122</t>
+  </si>
+  <si>
+    <t>哈哈哈哈122</t>
+  </si>
+  <si>
+    <t>给我给我个123</t>
+  </si>
+  <si>
+    <t>哈哈哈哈123</t>
+  </si>
+  <si>
+    <t>给我给我个124</t>
+  </si>
+  <si>
+    <t>哈哈哈哈124</t>
+  </si>
+  <si>
+    <t>给我给我个125</t>
+  </si>
+  <si>
+    <t>哈哈哈哈125</t>
+  </si>
+  <si>
+    <t>给我给我个126</t>
+  </si>
+  <si>
+    <t>哈哈哈哈126</t>
+  </si>
+  <si>
+    <t>给我给我个127</t>
+  </si>
+  <si>
+    <t>哈哈哈哈127</t>
+  </si>
+  <si>
+    <t>给我给我个128</t>
+  </si>
+  <si>
+    <t>哈哈哈哈128</t>
+  </si>
+  <si>
+    <t>给我给我个129</t>
+  </si>
+  <si>
+    <t>哈哈哈哈129</t>
+  </si>
+  <si>
+    <t>给我给我个130</t>
+  </si>
+  <si>
+    <t>哈哈哈哈130</t>
+  </si>
+  <si>
+    <t>给我给我个131</t>
+  </si>
+  <si>
+    <t>哈哈哈哈131</t>
+  </si>
+  <si>
+    <t>给我给我个132</t>
+  </si>
+  <si>
+    <t>哈哈哈哈132</t>
+  </si>
+  <si>
+    <t>给我给我个133</t>
+  </si>
+  <si>
+    <t>哈哈哈哈133</t>
+  </si>
+  <si>
+    <t>给我给我个134</t>
+  </si>
+  <si>
+    <t>哈哈哈哈134</t>
+  </si>
+  <si>
+    <t>给我给我个135</t>
+  </si>
+  <si>
+    <t>哈哈哈哈135</t>
+  </si>
+  <si>
+    <t>给我给我个136</t>
+  </si>
+  <si>
+    <t>哈哈哈哈136</t>
+  </si>
+  <si>
+    <t>给我给我个137</t>
+  </si>
+  <si>
+    <t>哈哈哈哈137</t>
+  </si>
+  <si>
+    <t>给我给我个138</t>
+  </si>
+  <si>
+    <t>哈哈哈哈138</t>
+  </si>
+  <si>
+    <t>给我给我个139</t>
+  </si>
+  <si>
+    <t>哈哈哈哈139</t>
+  </si>
+  <si>
+    <t>给我给我个140</t>
+  </si>
+  <si>
+    <t>哈哈哈哈140</t>
+  </si>
+  <si>
+    <t>给我给我个141</t>
+  </si>
+  <si>
+    <t>哈哈哈哈141</t>
+  </si>
+  <si>
+    <t>给我给我个142</t>
+  </si>
+  <si>
+    <t>哈哈哈哈142</t>
+  </si>
+  <si>
+    <t>给我给我个143</t>
+  </si>
+  <si>
+    <t>哈哈哈哈143</t>
+  </si>
+  <si>
+    <t>给我给我个144</t>
+  </si>
+  <si>
+    <t>哈哈哈哈144</t>
+  </si>
+  <si>
+    <t>给我给我个145</t>
+  </si>
+  <si>
+    <t>哈哈哈哈145</t>
+  </si>
+  <si>
+    <t>给我给我个146</t>
+  </si>
+  <si>
+    <t>哈哈哈哈146</t>
+  </si>
+  <si>
+    <t>给我给我个147</t>
+  </si>
+  <si>
+    <t>哈哈哈哈147</t>
+  </si>
+  <si>
+    <t>给我给我个148</t>
+  </si>
+  <si>
+    <t>哈哈哈哈148</t>
+  </si>
+  <si>
+    <t>给我给我个149</t>
+  </si>
+  <si>
+    <t>哈哈哈哈149</t>
+  </si>
+  <si>
+    <t>给我给我个150</t>
+  </si>
+  <si>
+    <t>哈哈哈哈150</t>
+  </si>
+  <si>
+    <t>给我给我个151</t>
+  </si>
+  <si>
+    <t>哈哈哈哈151</t>
+  </si>
+  <si>
+    <t>给我给我个152</t>
+  </si>
+  <si>
+    <t>哈哈哈哈152</t>
+  </si>
+  <si>
+    <t>给我给我个153</t>
+  </si>
+  <si>
+    <t>哈哈哈哈153</t>
+  </si>
+  <si>
+    <t>给我给我个154</t>
+  </si>
+  <si>
+    <t>哈哈哈哈154</t>
+  </si>
+  <si>
+    <t>给我给我个155</t>
+  </si>
+  <si>
+    <t>哈哈哈哈155</t>
+  </si>
+  <si>
+    <t>给我给我个156</t>
+  </si>
+  <si>
+    <t>哈哈哈哈156</t>
+  </si>
+  <si>
+    <t>给我给我个157</t>
+  </si>
+  <si>
+    <t>哈哈哈哈157</t>
+  </si>
+  <si>
+    <t>给我给我个158</t>
+  </si>
+  <si>
+    <t>哈哈哈哈158</t>
+  </si>
+  <si>
+    <t>给我给我个159</t>
+  </si>
+  <si>
+    <t>哈哈哈哈159</t>
+  </si>
+  <si>
+    <t>给我给我个160</t>
+  </si>
+  <si>
+    <t>哈哈哈哈160</t>
+  </si>
+  <si>
+    <t>给我给我个161</t>
+  </si>
+  <si>
+    <t>哈哈哈哈161</t>
+  </si>
+  <si>
+    <t>给我给我个162</t>
+  </si>
+  <si>
+    <t>哈哈哈哈162</t>
+  </si>
+  <si>
+    <t>给我给我个163</t>
+  </si>
+  <si>
+    <t>哈哈哈哈163</t>
+  </si>
+  <si>
+    <t>给我给我个164</t>
+  </si>
+  <si>
+    <t>哈哈哈哈164</t>
+  </si>
+  <si>
+    <t>给我给我个165</t>
+  </si>
+  <si>
+    <t>哈哈哈哈165</t>
+  </si>
+  <si>
+    <t>给我给我个166</t>
+  </si>
+  <si>
+    <t>哈哈哈哈166</t>
+  </si>
+  <si>
+    <t>给我给我个167</t>
+  </si>
+  <si>
+    <t>哈哈哈哈167</t>
+  </si>
+  <si>
+    <t>给我给我个168</t>
+  </si>
+  <si>
+    <t>哈哈哈哈168</t>
+  </si>
+  <si>
+    <t>给我给我个169</t>
+  </si>
+  <si>
+    <t>哈哈哈哈169</t>
+  </si>
+  <si>
+    <t>给我给我个170</t>
+  </si>
+  <si>
+    <t>哈哈哈哈170</t>
+  </si>
+  <si>
+    <t>给我给我个171</t>
+  </si>
+  <si>
+    <t>哈哈哈哈171</t>
+  </si>
+  <si>
+    <t>给我给我个172</t>
+  </si>
+  <si>
+    <t>哈哈哈哈172</t>
+  </si>
+  <si>
+    <t>给我给我个173</t>
+  </si>
+  <si>
+    <t>哈哈哈哈173</t>
+  </si>
+  <si>
+    <t>给我给我个174</t>
+  </si>
+  <si>
+    <t>哈哈哈哈174</t>
+  </si>
+  <si>
+    <t>给我给我个175</t>
+  </si>
+  <si>
+    <t>哈哈哈哈175</t>
+  </si>
+  <si>
+    <t>给我给我个176</t>
+  </si>
+  <si>
+    <t>哈哈哈哈176</t>
+  </si>
+  <si>
+    <t>给我给我个177</t>
+  </si>
+  <si>
+    <t>哈哈哈哈177</t>
+  </si>
+  <si>
+    <t>给我给我个178</t>
+  </si>
+  <si>
+    <t>哈哈哈哈178</t>
+  </si>
+  <si>
+    <t>给我给我个179</t>
+  </si>
+  <si>
+    <t>哈哈哈哈179</t>
+  </si>
+  <si>
+    <t>给我给我个180</t>
+  </si>
+  <si>
+    <t>哈哈哈哈180</t>
+  </si>
+  <si>
+    <t>给我给我个181</t>
+  </si>
+  <si>
+    <t>哈哈哈哈181</t>
+  </si>
+  <si>
+    <t>给我给我个182</t>
+  </si>
+  <si>
+    <t>哈哈哈哈182</t>
+  </si>
+  <si>
+    <t>给我给我个183</t>
+  </si>
+  <si>
+    <t>哈哈哈哈183</t>
+  </si>
+  <si>
+    <t>给我给我个184</t>
+  </si>
+  <si>
+    <t>哈哈哈哈184</t>
+  </si>
+  <si>
+    <t>给我给我个185</t>
+  </si>
+  <si>
+    <t>哈哈哈哈185</t>
+  </si>
+  <si>
+    <t>给我给我个186</t>
+  </si>
+  <si>
+    <t>哈哈哈哈186</t>
+  </si>
+  <si>
+    <t>给我给我个187</t>
+  </si>
+  <si>
+    <t>哈哈哈哈187</t>
+  </si>
+  <si>
+    <t>给我给我个188</t>
+  </si>
+  <si>
+    <t>哈哈哈哈188</t>
+  </si>
+  <si>
+    <t>给我给我个189</t>
+  </si>
+  <si>
+    <t>哈哈哈哈189</t>
+  </si>
+  <si>
+    <t>给我给我个190</t>
+  </si>
+  <si>
+    <t>哈哈哈哈190</t>
+  </si>
+  <si>
+    <t>给我给我个191</t>
+  </si>
+  <si>
+    <t>哈哈哈哈191</t>
+  </si>
+  <si>
+    <t>给我给我个192</t>
+  </si>
+  <si>
+    <t>哈哈哈哈192</t>
+  </si>
+  <si>
+    <t>给我给我个193</t>
+  </si>
+  <si>
+    <t>哈哈哈哈193</t>
+  </si>
+  <si>
+    <t>给我给我个194</t>
+  </si>
+  <si>
+    <t>哈哈哈哈194</t>
+  </si>
+  <si>
+    <t>给我给我个195</t>
+  </si>
+  <si>
+    <t>哈哈哈哈195</t>
+  </si>
+  <si>
+    <t>给我给我个196</t>
+  </si>
+  <si>
+    <t>哈哈哈哈196</t>
   </si>
 </sst>
 </file>
@@ -113,9 +1283,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -128,68 +1298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +1308,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,22 +1341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -242,7 +1350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +1364,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -264,8 +1433,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,7 +1498,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,55 +1612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,55 +1624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +1642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,25 +1654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,32 +1683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,30 +1700,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +1729,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +1785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +1797,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,10 +2318,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="L223" sqref="L223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1510,94 +2680,6277 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="32" spans="1:10">
+      <c r="A32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D32" s="8">
         <v>3</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G32" s="8">
         <v>34</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H32" s="8">
         <v>3</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I32" s="8">
         <v>3</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J32" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="13"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="13"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="13"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="8"/>
+    <row r="33" spans="1:10">
+      <c r="A33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="8">
+        <v>6</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <v>4</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="8">
+        <v>35</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="8">
+        <v>4</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="8">
+        <v>5</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="8">
+        <v>36</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+      <c r="I34" s="8">
+        <v>5</v>
+      </c>
+      <c r="J34" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8">
+        <v>8</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="8">
+        <v>6</v>
+      </c>
+      <c r="E35" s="8">
+        <v>6</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="8">
+        <v>37</v>
+      </c>
+      <c r="H35" s="8">
+        <v>6</v>
+      </c>
+      <c r="I35" s="8">
+        <v>6</v>
+      </c>
+      <c r="J35" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="8">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8">
+        <v>7</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="8">
+        <v>38</v>
+      </c>
+      <c r="H36" s="8">
+        <v>7</v>
+      </c>
+      <c r="I36" s="8">
+        <v>7</v>
+      </c>
+      <c r="J36" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>10</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8">
+        <v>8</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="8">
+        <v>39</v>
+      </c>
+      <c r="H37" s="8">
+        <v>8</v>
+      </c>
+      <c r="I37" s="8">
+        <v>8</v>
+      </c>
+      <c r="J37" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>11</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="8">
+        <v>9</v>
+      </c>
+      <c r="E38" s="8">
+        <v>9</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="8">
+        <v>40</v>
+      </c>
+      <c r="H38" s="8">
+        <v>9</v>
+      </c>
+      <c r="I38" s="8">
+        <v>9</v>
+      </c>
+      <c r="J38" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>12</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="8">
+        <v>10</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="8">
+        <v>41</v>
+      </c>
+      <c r="H39" s="8">
+        <v>10</v>
+      </c>
+      <c r="I39" s="8">
+        <v>10</v>
+      </c>
+      <c r="J39" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="8">
+        <v>13</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="8">
+        <v>11</v>
+      </c>
+      <c r="E40" s="8">
+        <v>11</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="8">
+        <v>42</v>
+      </c>
+      <c r="H40" s="8">
+        <v>11</v>
+      </c>
+      <c r="I40" s="8">
+        <v>11</v>
+      </c>
+      <c r="J40" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8">
+        <v>14</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="8">
+        <v>12</v>
+      </c>
+      <c r="E41" s="8">
+        <v>12</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="8">
+        <v>43</v>
+      </c>
+      <c r="H41" s="8">
+        <v>12</v>
+      </c>
+      <c r="I41" s="8">
+        <v>12</v>
+      </c>
+      <c r="J41" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="8">
+        <v>15</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="8">
+        <v>13</v>
+      </c>
+      <c r="E42" s="8">
+        <v>13</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="8">
+        <v>44</v>
+      </c>
+      <c r="H42" s="8">
+        <v>13</v>
+      </c>
+      <c r="I42" s="8">
+        <v>13</v>
+      </c>
+      <c r="J42" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="8">
+        <v>16</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="8">
+        <v>14</v>
+      </c>
+      <c r="E43" s="8">
+        <v>14</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="8">
+        <v>45</v>
+      </c>
+      <c r="H43" s="8">
+        <v>14</v>
+      </c>
+      <c r="I43" s="8">
+        <v>14</v>
+      </c>
+      <c r="J43" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>17</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="8">
+        <v>15</v>
+      </c>
+      <c r="E44" s="8">
+        <v>15</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="8">
+        <v>46</v>
+      </c>
+      <c r="H44" s="8">
+        <v>15</v>
+      </c>
+      <c r="I44" s="8">
+        <v>15</v>
+      </c>
+      <c r="J44" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>18</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="8">
+        <v>16</v>
+      </c>
+      <c r="E45" s="8">
+        <v>16</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="8">
+        <v>47</v>
+      </c>
+      <c r="H45" s="8">
+        <v>16</v>
+      </c>
+      <c r="I45" s="8">
+        <v>16</v>
+      </c>
+      <c r="J45" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="8">
+        <v>19</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="8">
+        <v>17</v>
+      </c>
+      <c r="E46" s="8">
+        <v>17</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="8">
+        <v>48</v>
+      </c>
+      <c r="H46" s="8">
+        <v>17</v>
+      </c>
+      <c r="I46" s="8">
+        <v>17</v>
+      </c>
+      <c r="J46" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="8">
+        <v>20</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="8">
+        <v>18</v>
+      </c>
+      <c r="E47" s="8">
+        <v>18</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="8">
+        <v>49</v>
+      </c>
+      <c r="H47" s="8">
+        <v>18</v>
+      </c>
+      <c r="I47" s="8">
+        <v>18</v>
+      </c>
+      <c r="J47" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="8">
+        <v>21</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="8">
+        <v>19</v>
+      </c>
+      <c r="E48" s="8">
+        <v>19</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="8">
+        <v>50</v>
+      </c>
+      <c r="H48" s="8">
+        <v>19</v>
+      </c>
+      <c r="I48" s="8">
+        <v>19</v>
+      </c>
+      <c r="J48" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="8">
+        <v>22</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="8">
+        <v>20</v>
+      </c>
+      <c r="E49" s="8">
+        <v>20</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="8">
+        <v>51</v>
+      </c>
+      <c r="H49" s="8">
+        <v>20</v>
+      </c>
+      <c r="I49" s="8">
+        <v>20</v>
+      </c>
+      <c r="J49" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8">
+        <v>23</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="8">
+        <v>21</v>
+      </c>
+      <c r="E50" s="8">
+        <v>21</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="8">
+        <v>52</v>
+      </c>
+      <c r="H50" s="8">
+        <v>21</v>
+      </c>
+      <c r="I50" s="8">
+        <v>21</v>
+      </c>
+      <c r="J50" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="8">
+        <v>24</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="8">
+        <v>22</v>
+      </c>
+      <c r="E51" s="8">
+        <v>22</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="8">
+        <v>53</v>
+      </c>
+      <c r="H51" s="8">
+        <v>22</v>
+      </c>
+      <c r="I51" s="8">
+        <v>22</v>
+      </c>
+      <c r="J51" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="8">
+        <v>25</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="8">
+        <v>23</v>
+      </c>
+      <c r="E52" s="8">
+        <v>23</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="8">
+        <v>54</v>
+      </c>
+      <c r="H52" s="8">
+        <v>23</v>
+      </c>
+      <c r="I52" s="8">
+        <v>23</v>
+      </c>
+      <c r="J52" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="8">
+        <v>26</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8">
+        <v>24</v>
+      </c>
+      <c r="E53" s="8">
+        <v>24</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="8">
+        <v>55</v>
+      </c>
+      <c r="H53" s="8">
+        <v>24</v>
+      </c>
+      <c r="I53" s="8">
+        <v>24</v>
+      </c>
+      <c r="J53" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="8">
+        <v>27</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="8">
+        <v>25</v>
+      </c>
+      <c r="E54" s="8">
+        <v>25</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="8">
+        <v>56</v>
+      </c>
+      <c r="H54" s="8">
+        <v>25</v>
+      </c>
+      <c r="I54" s="8">
+        <v>25</v>
+      </c>
+      <c r="J54" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="8">
+        <v>28</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="8">
+        <v>26</v>
+      </c>
+      <c r="E55" s="8">
+        <v>26</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="8">
+        <v>57</v>
+      </c>
+      <c r="H55" s="8">
+        <v>26</v>
+      </c>
+      <c r="I55" s="8">
+        <v>26</v>
+      </c>
+      <c r="J55" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="8">
+        <v>29</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="8">
+        <v>27</v>
+      </c>
+      <c r="E56" s="8">
+        <v>27</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="8">
+        <v>58</v>
+      </c>
+      <c r="H56" s="8">
+        <v>27</v>
+      </c>
+      <c r="I56" s="8">
+        <v>27</v>
+      </c>
+      <c r="J56" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="8">
+        <v>30</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="8">
+        <v>28</v>
+      </c>
+      <c r="E57" s="8">
+        <v>28</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="8">
+        <v>59</v>
+      </c>
+      <c r="H57" s="8">
+        <v>28</v>
+      </c>
+      <c r="I57" s="8">
+        <v>28</v>
+      </c>
+      <c r="J57" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="8">
+        <v>31</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="8">
+        <v>29</v>
+      </c>
+      <c r="E58" s="8">
+        <v>29</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="8">
+        <v>60</v>
+      </c>
+      <c r="H58" s="8">
+        <v>29</v>
+      </c>
+      <c r="I58" s="8">
+        <v>29</v>
+      </c>
+      <c r="J58" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="8">
+        <v>32</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="8">
+        <v>30</v>
+      </c>
+      <c r="E59" s="8">
+        <v>30</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G59" s="8">
+        <v>61</v>
+      </c>
+      <c r="H59" s="8">
+        <v>30</v>
+      </c>
+      <c r="I59" s="8">
+        <v>30</v>
+      </c>
+      <c r="J59" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="8">
+        <v>33</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="8">
+        <v>31</v>
+      </c>
+      <c r="E60" s="8">
+        <v>31</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="8">
+        <v>62</v>
+      </c>
+      <c r="H60" s="8">
+        <v>31</v>
+      </c>
+      <c r="I60" s="8">
+        <v>31</v>
+      </c>
+      <c r="J60" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="8">
+        <v>34</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="8">
+        <v>32</v>
+      </c>
+      <c r="E61" s="8">
+        <v>32</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="8">
+        <v>63</v>
+      </c>
+      <c r="H61" s="8">
+        <v>32</v>
+      </c>
+      <c r="I61" s="8">
+        <v>32</v>
+      </c>
+      <c r="J61" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="8">
+        <v>35</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="8">
+        <v>33</v>
+      </c>
+      <c r="E62" s="8">
+        <v>33</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="8">
+        <v>64</v>
+      </c>
+      <c r="H62" s="8">
+        <v>33</v>
+      </c>
+      <c r="I62" s="8">
+        <v>33</v>
+      </c>
+      <c r="J62" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="8">
+        <v>36</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="8">
+        <v>34</v>
+      </c>
+      <c r="E63" s="8">
+        <v>34</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="8">
+        <v>65</v>
+      </c>
+      <c r="H63" s="8">
+        <v>34</v>
+      </c>
+      <c r="I63" s="8">
+        <v>34</v>
+      </c>
+      <c r="J63" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="8">
+        <v>37</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="8">
+        <v>35</v>
+      </c>
+      <c r="E64" s="8">
+        <v>35</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="8">
+        <v>66</v>
+      </c>
+      <c r="H64" s="8">
+        <v>35</v>
+      </c>
+      <c r="I64" s="8">
+        <v>35</v>
+      </c>
+      <c r="J64" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="8">
+        <v>38</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="8">
+        <v>36</v>
+      </c>
+      <c r="E65" s="8">
+        <v>36</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="8">
+        <v>67</v>
+      </c>
+      <c r="H65" s="8">
+        <v>36</v>
+      </c>
+      <c r="I65" s="8">
+        <v>36</v>
+      </c>
+      <c r="J65" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="8">
+        <v>39</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="8">
+        <v>37</v>
+      </c>
+      <c r="E66" s="8">
+        <v>37</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="8">
+        <v>68</v>
+      </c>
+      <c r="H66" s="8">
+        <v>37</v>
+      </c>
+      <c r="I66" s="8">
+        <v>37</v>
+      </c>
+      <c r="J66" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="8">
+        <v>40</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="8">
+        <v>38</v>
+      </c>
+      <c r="E67" s="8">
+        <v>38</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" s="8">
+        <v>69</v>
+      </c>
+      <c r="H67" s="8">
+        <v>38</v>
+      </c>
+      <c r="I67" s="8">
+        <v>38</v>
+      </c>
+      <c r="J67" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="8">
+        <v>41</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="8">
+        <v>39</v>
+      </c>
+      <c r="E68" s="8">
+        <v>39</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="8">
+        <v>70</v>
+      </c>
+      <c r="H68" s="8">
+        <v>39</v>
+      </c>
+      <c r="I68" s="8">
+        <v>39</v>
+      </c>
+      <c r="J68" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="8">
+        <v>42</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="8">
+        <v>40</v>
+      </c>
+      <c r="E69" s="8">
+        <v>40</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="8">
+        <v>71</v>
+      </c>
+      <c r="H69" s="8">
+        <v>40</v>
+      </c>
+      <c r="I69" s="8">
+        <v>40</v>
+      </c>
+      <c r="J69" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="8">
+        <v>43</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="8">
+        <v>41</v>
+      </c>
+      <c r="E70" s="8">
+        <v>41</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70" s="8">
+        <v>72</v>
+      </c>
+      <c r="H70" s="8">
+        <v>41</v>
+      </c>
+      <c r="I70" s="8">
+        <v>41</v>
+      </c>
+      <c r="J70" s="8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="8">
+        <v>44</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="8">
+        <v>42</v>
+      </c>
+      <c r="E71" s="8">
+        <v>42</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" s="8">
+        <v>73</v>
+      </c>
+      <c r="H71" s="8">
+        <v>42</v>
+      </c>
+      <c r="I71" s="8">
+        <v>42</v>
+      </c>
+      <c r="J71" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="8">
+        <v>45</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="8">
+        <v>43</v>
+      </c>
+      <c r="E72" s="8">
+        <v>43</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="8">
+        <v>74</v>
+      </c>
+      <c r="H72" s="8">
+        <v>43</v>
+      </c>
+      <c r="I72" s="8">
+        <v>43</v>
+      </c>
+      <c r="J72" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="8">
+        <v>46</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="8">
+        <v>44</v>
+      </c>
+      <c r="E73" s="8">
+        <v>44</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" s="8">
+        <v>75</v>
+      </c>
+      <c r="H73" s="8">
+        <v>44</v>
+      </c>
+      <c r="I73" s="8">
+        <v>44</v>
+      </c>
+      <c r="J73" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="8">
+        <v>47</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="8">
+        <v>45</v>
+      </c>
+      <c r="E74" s="8">
+        <v>45</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" s="8">
+        <v>76</v>
+      </c>
+      <c r="H74" s="8">
+        <v>45</v>
+      </c>
+      <c r="I74" s="8">
+        <v>45</v>
+      </c>
+      <c r="J74" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="8">
+        <v>48</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="8">
+        <v>46</v>
+      </c>
+      <c r="E75" s="8">
+        <v>46</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G75" s="8">
+        <v>77</v>
+      </c>
+      <c r="H75" s="8">
+        <v>46</v>
+      </c>
+      <c r="I75" s="8">
+        <v>46</v>
+      </c>
+      <c r="J75" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="8">
+        <v>49</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="8">
+        <v>47</v>
+      </c>
+      <c r="E76" s="8">
+        <v>47</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" s="8">
+        <v>78</v>
+      </c>
+      <c r="H76" s="8">
+        <v>47</v>
+      </c>
+      <c r="I76" s="8">
+        <v>47</v>
+      </c>
+      <c r="J76" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="8">
+        <v>50</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="8">
+        <v>48</v>
+      </c>
+      <c r="E77" s="8">
+        <v>48</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G77" s="8">
+        <v>79</v>
+      </c>
+      <c r="H77" s="8">
+        <v>48</v>
+      </c>
+      <c r="I77" s="8">
+        <v>48</v>
+      </c>
+      <c r="J77" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="8">
+        <v>51</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="8">
+        <v>49</v>
+      </c>
+      <c r="E78" s="8">
+        <v>49</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="8">
+        <v>80</v>
+      </c>
+      <c r="H78" s="8">
+        <v>49</v>
+      </c>
+      <c r="I78" s="8">
+        <v>49</v>
+      </c>
+      <c r="J78" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="8">
+        <v>52</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="8">
+        <v>50</v>
+      </c>
+      <c r="E79" s="8">
+        <v>50</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G79" s="8">
+        <v>81</v>
+      </c>
+      <c r="H79" s="8">
+        <v>50</v>
+      </c>
+      <c r="I79" s="8">
+        <v>50</v>
+      </c>
+      <c r="J79" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="8">
+        <v>53</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D80" s="8">
+        <v>51</v>
+      </c>
+      <c r="E80" s="8">
+        <v>51</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G80" s="8">
+        <v>82</v>
+      </c>
+      <c r="H80" s="8">
+        <v>51</v>
+      </c>
+      <c r="I80" s="8">
+        <v>51</v>
+      </c>
+      <c r="J80" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="8">
+        <v>54</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="8">
+        <v>52</v>
+      </c>
+      <c r="E81" s="8">
+        <v>52</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81" s="8">
+        <v>83</v>
+      </c>
+      <c r="H81" s="8">
+        <v>52</v>
+      </c>
+      <c r="I81" s="8">
+        <v>52</v>
+      </c>
+      <c r="J81" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="8">
+        <v>55</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" s="8">
+        <v>53</v>
+      </c>
+      <c r="E82" s="8">
+        <v>53</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G82" s="8">
+        <v>84</v>
+      </c>
+      <c r="H82" s="8">
+        <v>53</v>
+      </c>
+      <c r="I82" s="8">
+        <v>53</v>
+      </c>
+      <c r="J82" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="8">
+        <v>56</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="8">
+        <v>54</v>
+      </c>
+      <c r="E83" s="8">
+        <v>54</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="8">
+        <v>85</v>
+      </c>
+      <c r="H83" s="8">
+        <v>54</v>
+      </c>
+      <c r="I83" s="8">
+        <v>54</v>
+      </c>
+      <c r="J83" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="8">
+        <v>57</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" s="8">
+        <v>55</v>
+      </c>
+      <c r="E84" s="8">
+        <v>55</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G84" s="8">
+        <v>86</v>
+      </c>
+      <c r="H84" s="8">
+        <v>55</v>
+      </c>
+      <c r="I84" s="8">
+        <v>55</v>
+      </c>
+      <c r="J84" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="8">
+        <v>58</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" s="8">
+        <v>56</v>
+      </c>
+      <c r="E85" s="8">
+        <v>56</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" s="8">
+        <v>87</v>
+      </c>
+      <c r="H85" s="8">
+        <v>56</v>
+      </c>
+      <c r="I85" s="8">
+        <v>56</v>
+      </c>
+      <c r="J85" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="8">
+        <v>59</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="8">
+        <v>57</v>
+      </c>
+      <c r="E86" s="8">
+        <v>57</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" s="8">
+        <v>88</v>
+      </c>
+      <c r="H86" s="8">
+        <v>57</v>
+      </c>
+      <c r="I86" s="8">
+        <v>57</v>
+      </c>
+      <c r="J86" s="8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="8">
+        <v>60</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="8">
+        <v>58</v>
+      </c>
+      <c r="E87" s="8">
+        <v>58</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G87" s="8">
+        <v>89</v>
+      </c>
+      <c r="H87" s="8">
+        <v>58</v>
+      </c>
+      <c r="I87" s="8">
+        <v>58</v>
+      </c>
+      <c r="J87" s="8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="8">
+        <v>61</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="8">
+        <v>59</v>
+      </c>
+      <c r="E88" s="8">
+        <v>59</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G88" s="8">
+        <v>90</v>
+      </c>
+      <c r="H88" s="8">
+        <v>59</v>
+      </c>
+      <c r="I88" s="8">
+        <v>59</v>
+      </c>
+      <c r="J88" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="8">
+        <v>62</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="8">
+        <v>60</v>
+      </c>
+      <c r="E89" s="8">
+        <v>60</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G89" s="8">
+        <v>91</v>
+      </c>
+      <c r="H89" s="8">
+        <v>60</v>
+      </c>
+      <c r="I89" s="8">
+        <v>60</v>
+      </c>
+      <c r="J89" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="8">
+        <v>63</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="8">
+        <v>61</v>
+      </c>
+      <c r="E90" s="8">
+        <v>61</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G90" s="8">
+        <v>92</v>
+      </c>
+      <c r="H90" s="8">
+        <v>61</v>
+      </c>
+      <c r="I90" s="8">
+        <v>61</v>
+      </c>
+      <c r="J90" s="8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="8">
+        <v>64</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="8">
+        <v>62</v>
+      </c>
+      <c r="E91" s="8">
+        <v>62</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G91" s="8">
+        <v>93</v>
+      </c>
+      <c r="H91" s="8">
+        <v>62</v>
+      </c>
+      <c r="I91" s="8">
+        <v>62</v>
+      </c>
+      <c r="J91" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="8">
+        <v>65</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="8">
+        <v>63</v>
+      </c>
+      <c r="E92" s="8">
+        <v>63</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G92" s="8">
+        <v>94</v>
+      </c>
+      <c r="H92" s="8">
+        <v>63</v>
+      </c>
+      <c r="I92" s="8">
+        <v>63</v>
+      </c>
+      <c r="J92" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="8">
+        <v>66</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="8">
+        <v>64</v>
+      </c>
+      <c r="E93" s="8">
+        <v>64</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" s="8">
+        <v>95</v>
+      </c>
+      <c r="H93" s="8">
+        <v>64</v>
+      </c>
+      <c r="I93" s="8">
+        <v>64</v>
+      </c>
+      <c r="J93" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="8">
+        <v>67</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="8">
+        <v>65</v>
+      </c>
+      <c r="E94" s="8">
+        <v>65</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G94" s="8">
+        <v>96</v>
+      </c>
+      <c r="H94" s="8">
+        <v>65</v>
+      </c>
+      <c r="I94" s="8">
+        <v>65</v>
+      </c>
+      <c r="J94" s="8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="8">
+        <v>68</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="8">
+        <v>66</v>
+      </c>
+      <c r="E95" s="8">
+        <v>66</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G95" s="8">
+        <v>97</v>
+      </c>
+      <c r="H95" s="8">
+        <v>66</v>
+      </c>
+      <c r="I95" s="8">
+        <v>66</v>
+      </c>
+      <c r="J95" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="8">
+        <v>69</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="8">
+        <v>67</v>
+      </c>
+      <c r="E96" s="8">
+        <v>67</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="8">
+        <v>98</v>
+      </c>
+      <c r="H96" s="8">
+        <v>67</v>
+      </c>
+      <c r="I96" s="8">
+        <v>67</v>
+      </c>
+      <c r="J96" s="8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="8">
+        <v>70</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="8">
+        <v>68</v>
+      </c>
+      <c r="E97" s="8">
+        <v>68</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G97" s="8">
+        <v>99</v>
+      </c>
+      <c r="H97" s="8">
+        <v>68</v>
+      </c>
+      <c r="I97" s="8">
+        <v>68</v>
+      </c>
+      <c r="J97" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="8">
+        <v>71</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" s="8">
+        <v>69</v>
+      </c>
+      <c r="E98" s="8">
+        <v>69</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G98" s="8">
+        <v>100</v>
+      </c>
+      <c r="H98" s="8">
+        <v>69</v>
+      </c>
+      <c r="I98" s="8">
+        <v>69</v>
+      </c>
+      <c r="J98" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="8">
+        <v>72</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="8">
+        <v>70</v>
+      </c>
+      <c r="E99" s="8">
+        <v>70</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G99" s="8">
+        <v>101</v>
+      </c>
+      <c r="H99" s="8">
+        <v>70</v>
+      </c>
+      <c r="I99" s="8">
+        <v>70</v>
+      </c>
+      <c r="J99" s="8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="8">
+        <v>73</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="8">
+        <v>71</v>
+      </c>
+      <c r="E100" s="8">
+        <v>71</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G100" s="8">
+        <v>102</v>
+      </c>
+      <c r="H100" s="8">
+        <v>71</v>
+      </c>
+      <c r="I100" s="8">
+        <v>71</v>
+      </c>
+      <c r="J100" s="8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="8">
+        <v>74</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="8">
+        <v>72</v>
+      </c>
+      <c r="E101" s="8">
+        <v>72</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="8">
+        <v>103</v>
+      </c>
+      <c r="H101" s="8">
+        <v>72</v>
+      </c>
+      <c r="I101" s="8">
+        <v>72</v>
+      </c>
+      <c r="J101" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="8">
+        <v>75</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D102" s="8">
+        <v>73</v>
+      </c>
+      <c r="E102" s="8">
+        <v>73</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G102" s="8">
+        <v>104</v>
+      </c>
+      <c r="H102" s="8">
+        <v>73</v>
+      </c>
+      <c r="I102" s="8">
+        <v>73</v>
+      </c>
+      <c r="J102" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="8">
+        <v>76</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" s="8">
+        <v>74</v>
+      </c>
+      <c r="E103" s="8">
+        <v>74</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="G103" s="8">
+        <v>105</v>
+      </c>
+      <c r="H103" s="8">
+        <v>74</v>
+      </c>
+      <c r="I103" s="8">
+        <v>74</v>
+      </c>
+      <c r="J103" s="8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="8">
+        <v>77</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" s="8">
+        <v>75</v>
+      </c>
+      <c r="E104" s="8">
+        <v>75</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G104" s="8">
+        <v>106</v>
+      </c>
+      <c r="H104" s="8">
+        <v>75</v>
+      </c>
+      <c r="I104" s="8">
+        <v>75</v>
+      </c>
+      <c r="J104" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="8">
+        <v>78</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D105" s="8">
+        <v>76</v>
+      </c>
+      <c r="E105" s="8">
+        <v>76</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G105" s="8">
+        <v>107</v>
+      </c>
+      <c r="H105" s="8">
+        <v>76</v>
+      </c>
+      <c r="I105" s="8">
+        <v>76</v>
+      </c>
+      <c r="J105" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="8">
+        <v>79</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="8">
+        <v>77</v>
+      </c>
+      <c r="E106" s="8">
+        <v>77</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G106" s="8">
+        <v>108</v>
+      </c>
+      <c r="H106" s="8">
+        <v>77</v>
+      </c>
+      <c r="I106" s="8">
+        <v>77</v>
+      </c>
+      <c r="J106" s="8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="8">
+        <v>80</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="8">
+        <v>78</v>
+      </c>
+      <c r="E107" s="8">
+        <v>78</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G107" s="8">
+        <v>109</v>
+      </c>
+      <c r="H107" s="8">
+        <v>78</v>
+      </c>
+      <c r="I107" s="8">
+        <v>78</v>
+      </c>
+      <c r="J107" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="8">
+        <v>81</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="8">
+        <v>79</v>
+      </c>
+      <c r="E108" s="8">
+        <v>79</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G108" s="8">
+        <v>110</v>
+      </c>
+      <c r="H108" s="8">
+        <v>79</v>
+      </c>
+      <c r="I108" s="8">
+        <v>79</v>
+      </c>
+      <c r="J108" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="8">
+        <v>82</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D109" s="8">
+        <v>80</v>
+      </c>
+      <c r="E109" s="8">
+        <v>80</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G109" s="8">
+        <v>111</v>
+      </c>
+      <c r="H109" s="8">
+        <v>80</v>
+      </c>
+      <c r="I109" s="8">
+        <v>80</v>
+      </c>
+      <c r="J109" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="8">
+        <v>83</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" s="8">
+        <v>81</v>
+      </c>
+      <c r="E110" s="8">
+        <v>81</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G110" s="8">
+        <v>112</v>
+      </c>
+      <c r="H110" s="8">
+        <v>81</v>
+      </c>
+      <c r="I110" s="8">
+        <v>81</v>
+      </c>
+      <c r="J110" s="8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="8">
+        <v>84</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="8">
+        <v>82</v>
+      </c>
+      <c r="E111" s="8">
+        <v>82</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G111" s="8">
+        <v>113</v>
+      </c>
+      <c r="H111" s="8">
+        <v>82</v>
+      </c>
+      <c r="I111" s="8">
+        <v>82</v>
+      </c>
+      <c r="J111" s="8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="8">
+        <v>85</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" s="8">
+        <v>83</v>
+      </c>
+      <c r="E112" s="8">
+        <v>83</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G112" s="8">
+        <v>114</v>
+      </c>
+      <c r="H112" s="8">
+        <v>83</v>
+      </c>
+      <c r="I112" s="8">
+        <v>83</v>
+      </c>
+      <c r="J112" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="8">
+        <v>86</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="8">
+        <v>84</v>
+      </c>
+      <c r="E113" s="8">
+        <v>84</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G113" s="8">
+        <v>115</v>
+      </c>
+      <c r="H113" s="8">
+        <v>84</v>
+      </c>
+      <c r="I113" s="8">
+        <v>84</v>
+      </c>
+      <c r="J113" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="8">
+        <v>87</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D114" s="8">
+        <v>85</v>
+      </c>
+      <c r="E114" s="8">
+        <v>85</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="G114" s="8">
+        <v>116</v>
+      </c>
+      <c r="H114" s="8">
+        <v>85</v>
+      </c>
+      <c r="I114" s="8">
+        <v>85</v>
+      </c>
+      <c r="J114" s="8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="8">
+        <v>88</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D115" s="8">
+        <v>86</v>
+      </c>
+      <c r="E115" s="8">
+        <v>86</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G115" s="8">
+        <v>117</v>
+      </c>
+      <c r="H115" s="8">
+        <v>86</v>
+      </c>
+      <c r="I115" s="8">
+        <v>86</v>
+      </c>
+      <c r="J115" s="8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="8">
+        <v>89</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D116" s="8">
+        <v>87</v>
+      </c>
+      <c r="E116" s="8">
+        <v>87</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G116" s="8">
+        <v>118</v>
+      </c>
+      <c r="H116" s="8">
+        <v>87</v>
+      </c>
+      <c r="I116" s="8">
+        <v>87</v>
+      </c>
+      <c r="J116" s="8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="8">
+        <v>90</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" s="8">
+        <v>88</v>
+      </c>
+      <c r="E117" s="8">
+        <v>88</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G117" s="8">
+        <v>119</v>
+      </c>
+      <c r="H117" s="8">
+        <v>88</v>
+      </c>
+      <c r="I117" s="8">
+        <v>88</v>
+      </c>
+      <c r="J117" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="8">
+        <v>91</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" s="8">
+        <v>89</v>
+      </c>
+      <c r="E118" s="8">
+        <v>89</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="G118" s="8">
+        <v>120</v>
+      </c>
+      <c r="H118" s="8">
+        <v>89</v>
+      </c>
+      <c r="I118" s="8">
+        <v>89</v>
+      </c>
+      <c r="J118" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="8">
+        <v>92</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" s="8">
+        <v>90</v>
+      </c>
+      <c r="E119" s="8">
+        <v>90</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G119" s="8">
+        <v>121</v>
+      </c>
+      <c r="H119" s="8">
+        <v>90</v>
+      </c>
+      <c r="I119" s="8">
+        <v>90</v>
+      </c>
+      <c r="J119" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="8">
+        <v>93</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D120" s="8">
+        <v>91</v>
+      </c>
+      <c r="E120" s="8">
+        <v>91</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G120" s="8">
+        <v>122</v>
+      </c>
+      <c r="H120" s="8">
+        <v>91</v>
+      </c>
+      <c r="I120" s="8">
+        <v>91</v>
+      </c>
+      <c r="J120" s="8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="8">
+        <v>94</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="8">
+        <v>92</v>
+      </c>
+      <c r="E121" s="8">
+        <v>92</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" s="8">
+        <v>123</v>
+      </c>
+      <c r="H121" s="8">
+        <v>92</v>
+      </c>
+      <c r="I121" s="8">
+        <v>92</v>
+      </c>
+      <c r="J121" s="8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="8">
+        <v>95</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="8">
+        <v>93</v>
+      </c>
+      <c r="E122" s="8">
+        <v>93</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G122" s="8">
+        <v>124</v>
+      </c>
+      <c r="H122" s="8">
+        <v>93</v>
+      </c>
+      <c r="I122" s="8">
+        <v>93</v>
+      </c>
+      <c r="J122" s="8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="8">
+        <v>96</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D123" s="8">
+        <v>94</v>
+      </c>
+      <c r="E123" s="8">
+        <v>94</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G123" s="8">
+        <v>125</v>
+      </c>
+      <c r="H123" s="8">
+        <v>94</v>
+      </c>
+      <c r="I123" s="8">
+        <v>94</v>
+      </c>
+      <c r="J123" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="8">
+        <v>97</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D124" s="8">
+        <v>95</v>
+      </c>
+      <c r="E124" s="8">
+        <v>95</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G124" s="8">
+        <v>126</v>
+      </c>
+      <c r="H124" s="8">
+        <v>95</v>
+      </c>
+      <c r="I124" s="8">
+        <v>95</v>
+      </c>
+      <c r="J124" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="8">
+        <v>98</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" s="8">
+        <v>96</v>
+      </c>
+      <c r="E125" s="8">
+        <v>96</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G125" s="8">
+        <v>127</v>
+      </c>
+      <c r="H125" s="8">
+        <v>96</v>
+      </c>
+      <c r="I125" s="8">
+        <v>96</v>
+      </c>
+      <c r="J125" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="8">
+        <v>99</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="8">
+        <v>97</v>
+      </c>
+      <c r="E126" s="8">
+        <v>97</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G126" s="8">
+        <v>128</v>
+      </c>
+      <c r="H126" s="8">
+        <v>97</v>
+      </c>
+      <c r="I126" s="8">
+        <v>97</v>
+      </c>
+      <c r="J126" s="8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="8">
+        <v>100</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D127" s="8">
+        <v>98</v>
+      </c>
+      <c r="E127" s="8">
+        <v>98</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G127" s="8">
+        <v>129</v>
+      </c>
+      <c r="H127" s="8">
+        <v>98</v>
+      </c>
+      <c r="I127" s="8">
+        <v>98</v>
+      </c>
+      <c r="J127" s="8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="8">
+        <v>101</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" s="8">
+        <v>99</v>
+      </c>
+      <c r="E128" s="8">
+        <v>99</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G128" s="8">
+        <v>130</v>
+      </c>
+      <c r="H128" s="8">
+        <v>99</v>
+      </c>
+      <c r="I128" s="8">
+        <v>99</v>
+      </c>
+      <c r="J128" s="8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="8">
+        <v>102</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D129" s="8">
+        <v>100</v>
+      </c>
+      <c r="E129" s="8">
+        <v>100</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G129" s="8">
+        <v>131</v>
+      </c>
+      <c r="H129" s="8">
+        <v>100</v>
+      </c>
+      <c r="I129" s="8">
+        <v>100</v>
+      </c>
+      <c r="J129" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="8">
+        <v>103</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D130" s="8">
+        <v>101</v>
+      </c>
+      <c r="E130" s="8">
+        <v>101</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G130" s="8">
+        <v>132</v>
+      </c>
+      <c r="H130" s="8">
+        <v>101</v>
+      </c>
+      <c r="I130" s="8">
+        <v>101</v>
+      </c>
+      <c r="J130" s="8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="8">
+        <v>104</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" s="8">
+        <v>102</v>
+      </c>
+      <c r="E131" s="8">
+        <v>102</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G131" s="8">
+        <v>133</v>
+      </c>
+      <c r="H131" s="8">
+        <v>102</v>
+      </c>
+      <c r="I131" s="8">
+        <v>102</v>
+      </c>
+      <c r="J131" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="8">
+        <v>105</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D132" s="8">
+        <v>103</v>
+      </c>
+      <c r="E132" s="8">
+        <v>103</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G132" s="8">
+        <v>134</v>
+      </c>
+      <c r="H132" s="8">
+        <v>103</v>
+      </c>
+      <c r="I132" s="8">
+        <v>103</v>
+      </c>
+      <c r="J132" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" s="8">
+        <v>106</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D133" s="8">
+        <v>104</v>
+      </c>
+      <c r="E133" s="8">
+        <v>104</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G133" s="8">
+        <v>135</v>
+      </c>
+      <c r="H133" s="8">
+        <v>104</v>
+      </c>
+      <c r="I133" s="8">
+        <v>104</v>
+      </c>
+      <c r="J133" s="8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="8">
+        <v>107</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D134" s="8">
+        <v>105</v>
+      </c>
+      <c r="E134" s="8">
+        <v>105</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G134" s="8">
+        <v>136</v>
+      </c>
+      <c r="H134" s="8">
+        <v>105</v>
+      </c>
+      <c r="I134" s="8">
+        <v>105</v>
+      </c>
+      <c r="J134" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="8">
+        <v>108</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D135" s="8">
+        <v>106</v>
+      </c>
+      <c r="E135" s="8">
+        <v>106</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G135" s="8">
+        <v>137</v>
+      </c>
+      <c r="H135" s="8">
+        <v>106</v>
+      </c>
+      <c r="I135" s="8">
+        <v>106</v>
+      </c>
+      <c r="J135" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="8">
+        <v>109</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D136" s="8">
+        <v>107</v>
+      </c>
+      <c r="E136" s="8">
+        <v>107</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G136" s="8">
+        <v>138</v>
+      </c>
+      <c r="H136" s="8">
+        <v>107</v>
+      </c>
+      <c r="I136" s="8">
+        <v>107</v>
+      </c>
+      <c r="J136" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="8">
+        <v>110</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D137" s="8">
+        <v>108</v>
+      </c>
+      <c r="E137" s="8">
+        <v>108</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G137" s="8">
+        <v>139</v>
+      </c>
+      <c r="H137" s="8">
+        <v>108</v>
+      </c>
+      <c r="I137" s="8">
+        <v>108</v>
+      </c>
+      <c r="J137" s="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="8">
+        <v>111</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D138" s="8">
+        <v>109</v>
+      </c>
+      <c r="E138" s="8">
+        <v>109</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G138" s="8">
+        <v>140</v>
+      </c>
+      <c r="H138" s="8">
+        <v>109</v>
+      </c>
+      <c r="I138" s="8">
+        <v>109</v>
+      </c>
+      <c r="J138" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B139" s="8">
+        <v>112</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="8">
+        <v>110</v>
+      </c>
+      <c r="E139" s="8">
+        <v>110</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G139" s="8">
+        <v>141</v>
+      </c>
+      <c r="H139" s="8">
+        <v>110</v>
+      </c>
+      <c r="I139" s="8">
+        <v>110</v>
+      </c>
+      <c r="J139" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="8">
+        <v>113</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D140" s="8">
+        <v>111</v>
+      </c>
+      <c r="E140" s="8">
+        <v>111</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G140" s="8">
+        <v>142</v>
+      </c>
+      <c r="H140" s="8">
+        <v>111</v>
+      </c>
+      <c r="I140" s="8">
+        <v>111</v>
+      </c>
+      <c r="J140" s="8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="8">
+        <v>114</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D141" s="8">
+        <v>112</v>
+      </c>
+      <c r="E141" s="8">
+        <v>112</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G141" s="8">
+        <v>143</v>
+      </c>
+      <c r="H141" s="8">
+        <v>112</v>
+      </c>
+      <c r="I141" s="8">
+        <v>112</v>
+      </c>
+      <c r="J141" s="8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B142" s="8">
+        <v>115</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D142" s="8">
+        <v>113</v>
+      </c>
+      <c r="E142" s="8">
+        <v>113</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G142" s="8">
+        <v>144</v>
+      </c>
+      <c r="H142" s="8">
+        <v>113</v>
+      </c>
+      <c r="I142" s="8">
+        <v>113</v>
+      </c>
+      <c r="J142" s="8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="8">
+        <v>116</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D143" s="8">
+        <v>114</v>
+      </c>
+      <c r="E143" s="8">
+        <v>114</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G143" s="8">
+        <v>145</v>
+      </c>
+      <c r="H143" s="8">
+        <v>114</v>
+      </c>
+      <c r="I143" s="8">
+        <v>114</v>
+      </c>
+      <c r="J143" s="8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="8">
+        <v>117</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="8">
+        <v>115</v>
+      </c>
+      <c r="E144" s="8">
+        <v>115</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G144" s="8">
+        <v>146</v>
+      </c>
+      <c r="H144" s="8">
+        <v>115</v>
+      </c>
+      <c r="I144" s="8">
+        <v>115</v>
+      </c>
+      <c r="J144" s="8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="8">
+        <v>118</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D145" s="8">
+        <v>116</v>
+      </c>
+      <c r="E145" s="8">
+        <v>116</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G145" s="8">
+        <v>147</v>
+      </c>
+      <c r="H145" s="8">
+        <v>116</v>
+      </c>
+      <c r="I145" s="8">
+        <v>116</v>
+      </c>
+      <c r="J145" s="8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="8">
+        <v>119</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146" s="8">
+        <v>117</v>
+      </c>
+      <c r="E146" s="8">
+        <v>117</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G146" s="8">
+        <v>148</v>
+      </c>
+      <c r="H146" s="8">
+        <v>117</v>
+      </c>
+      <c r="I146" s="8">
+        <v>117</v>
+      </c>
+      <c r="J146" s="8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="8">
+        <v>120</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D147" s="8">
+        <v>118</v>
+      </c>
+      <c r="E147" s="8">
+        <v>118</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G147" s="8">
+        <v>149</v>
+      </c>
+      <c r="H147" s="8">
+        <v>118</v>
+      </c>
+      <c r="I147" s="8">
+        <v>118</v>
+      </c>
+      <c r="J147" s="8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="8">
+        <v>121</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D148" s="8">
+        <v>119</v>
+      </c>
+      <c r="E148" s="8">
+        <v>119</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G148" s="8">
+        <v>150</v>
+      </c>
+      <c r="H148" s="8">
+        <v>119</v>
+      </c>
+      <c r="I148" s="8">
+        <v>119</v>
+      </c>
+      <c r="J148" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="8">
+        <v>122</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D149" s="8">
+        <v>120</v>
+      </c>
+      <c r="E149" s="8">
+        <v>120</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G149" s="8">
+        <v>151</v>
+      </c>
+      <c r="H149" s="8">
+        <v>120</v>
+      </c>
+      <c r="I149" s="8">
+        <v>120</v>
+      </c>
+      <c r="J149" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="8">
+        <v>123</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D150" s="8">
+        <v>121</v>
+      </c>
+      <c r="E150" s="8">
+        <v>121</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G150" s="8">
+        <v>152</v>
+      </c>
+      <c r="H150" s="8">
+        <v>121</v>
+      </c>
+      <c r="I150" s="8">
+        <v>121</v>
+      </c>
+      <c r="J150" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="8">
+        <v>124</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D151" s="8">
+        <v>122</v>
+      </c>
+      <c r="E151" s="8">
+        <v>122</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G151" s="8">
+        <v>153</v>
+      </c>
+      <c r="H151" s="8">
+        <v>122</v>
+      </c>
+      <c r="I151" s="8">
+        <v>122</v>
+      </c>
+      <c r="J151" s="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="8">
+        <v>125</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D152" s="8">
+        <v>123</v>
+      </c>
+      <c r="E152" s="8">
+        <v>123</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G152" s="8">
+        <v>154</v>
+      </c>
+      <c r="H152" s="8">
+        <v>123</v>
+      </c>
+      <c r="I152" s="8">
+        <v>123</v>
+      </c>
+      <c r="J152" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="8">
+        <v>126</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D153" s="8">
+        <v>124</v>
+      </c>
+      <c r="E153" s="8">
+        <v>124</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G153" s="8">
+        <v>155</v>
+      </c>
+      <c r="H153" s="8">
+        <v>124</v>
+      </c>
+      <c r="I153" s="8">
+        <v>124</v>
+      </c>
+      <c r="J153" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="8">
+        <v>127</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D154" s="8">
+        <v>125</v>
+      </c>
+      <c r="E154" s="8">
+        <v>125</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G154" s="8">
+        <v>156</v>
+      </c>
+      <c r="H154" s="8">
+        <v>125</v>
+      </c>
+      <c r="I154" s="8">
+        <v>125</v>
+      </c>
+      <c r="J154" s="8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="8">
+        <v>128</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D155" s="8">
+        <v>126</v>
+      </c>
+      <c r="E155" s="8">
+        <v>126</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="G155" s="8">
+        <v>157</v>
+      </c>
+      <c r="H155" s="8">
+        <v>126</v>
+      </c>
+      <c r="I155" s="8">
+        <v>126</v>
+      </c>
+      <c r="J155" s="8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="8">
+        <v>129</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="D156" s="8">
+        <v>127</v>
+      </c>
+      <c r="E156" s="8">
+        <v>127</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G156" s="8">
+        <v>158</v>
+      </c>
+      <c r="H156" s="8">
+        <v>127</v>
+      </c>
+      <c r="I156" s="8">
+        <v>127</v>
+      </c>
+      <c r="J156" s="8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="8">
+        <v>130</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" s="8">
+        <v>128</v>
+      </c>
+      <c r="E157" s="8">
+        <v>128</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G157" s="8">
+        <v>159</v>
+      </c>
+      <c r="H157" s="8">
+        <v>128</v>
+      </c>
+      <c r="I157" s="8">
+        <v>128</v>
+      </c>
+      <c r="J157" s="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="8">
+        <v>131</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D158" s="8">
+        <v>129</v>
+      </c>
+      <c r="E158" s="8">
+        <v>129</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G158" s="8">
+        <v>160</v>
+      </c>
+      <c r="H158" s="8">
+        <v>129</v>
+      </c>
+      <c r="I158" s="8">
+        <v>129</v>
+      </c>
+      <c r="J158" s="8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="8">
+        <v>132</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D159" s="8">
+        <v>130</v>
+      </c>
+      <c r="E159" s="8">
+        <v>130</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G159" s="8">
+        <v>161</v>
+      </c>
+      <c r="H159" s="8">
+        <v>130</v>
+      </c>
+      <c r="I159" s="8">
+        <v>130</v>
+      </c>
+      <c r="J159" s="8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="8">
+        <v>133</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D160" s="8">
+        <v>131</v>
+      </c>
+      <c r="E160" s="8">
+        <v>131</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G160" s="8">
+        <v>162</v>
+      </c>
+      <c r="H160" s="8">
+        <v>131</v>
+      </c>
+      <c r="I160" s="8">
+        <v>131</v>
+      </c>
+      <c r="J160" s="8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="8">
+        <v>134</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D161" s="8">
+        <v>132</v>
+      </c>
+      <c r="E161" s="8">
+        <v>132</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G161" s="8">
+        <v>163</v>
+      </c>
+      <c r="H161" s="8">
+        <v>132</v>
+      </c>
+      <c r="I161" s="8">
+        <v>132</v>
+      </c>
+      <c r="J161" s="8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="8">
+        <v>135</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D162" s="8">
+        <v>133</v>
+      </c>
+      <c r="E162" s="8">
+        <v>133</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G162" s="8">
+        <v>164</v>
+      </c>
+      <c r="H162" s="8">
+        <v>133</v>
+      </c>
+      <c r="I162" s="8">
+        <v>133</v>
+      </c>
+      <c r="J162" s="8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="8">
+        <v>136</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D163" s="8">
+        <v>134</v>
+      </c>
+      <c r="E163" s="8">
+        <v>134</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G163" s="8">
+        <v>165</v>
+      </c>
+      <c r="H163" s="8">
+        <v>134</v>
+      </c>
+      <c r="I163" s="8">
+        <v>134</v>
+      </c>
+      <c r="J163" s="8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="8">
+        <v>137</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D164" s="8">
+        <v>135</v>
+      </c>
+      <c r="E164" s="8">
+        <v>135</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G164" s="8">
+        <v>166</v>
+      </c>
+      <c r="H164" s="8">
+        <v>135</v>
+      </c>
+      <c r="I164" s="8">
+        <v>135</v>
+      </c>
+      <c r="J164" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="8">
+        <v>138</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D165" s="8">
+        <v>136</v>
+      </c>
+      <c r="E165" s="8">
+        <v>136</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G165" s="8">
+        <v>167</v>
+      </c>
+      <c r="H165" s="8">
+        <v>136</v>
+      </c>
+      <c r="I165" s="8">
+        <v>136</v>
+      </c>
+      <c r="J165" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="8">
+        <v>139</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D166" s="8">
+        <v>137</v>
+      </c>
+      <c r="E166" s="8">
+        <v>137</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G166" s="8">
+        <v>168</v>
+      </c>
+      <c r="H166" s="8">
+        <v>137</v>
+      </c>
+      <c r="I166" s="8">
+        <v>137</v>
+      </c>
+      <c r="J166" s="8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="8">
+        <v>140</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D167" s="8">
+        <v>138</v>
+      </c>
+      <c r="E167" s="8">
+        <v>138</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G167" s="8">
+        <v>169</v>
+      </c>
+      <c r="H167" s="8">
+        <v>138</v>
+      </c>
+      <c r="I167" s="8">
+        <v>138</v>
+      </c>
+      <c r="J167" s="8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="8">
+        <v>141</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D168" s="8">
+        <v>139</v>
+      </c>
+      <c r="E168" s="8">
+        <v>139</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G168" s="8">
+        <v>170</v>
+      </c>
+      <c r="H168" s="8">
+        <v>139</v>
+      </c>
+      <c r="I168" s="8">
+        <v>139</v>
+      </c>
+      <c r="J168" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="8">
+        <v>142</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="8">
+        <v>140</v>
+      </c>
+      <c r="E169" s="8">
+        <v>140</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G169" s="8">
+        <v>171</v>
+      </c>
+      <c r="H169" s="8">
+        <v>140</v>
+      </c>
+      <c r="I169" s="8">
+        <v>140</v>
+      </c>
+      <c r="J169" s="8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="8">
+        <v>143</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D170" s="8">
+        <v>141</v>
+      </c>
+      <c r="E170" s="8">
+        <v>141</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G170" s="8">
+        <v>172</v>
+      </c>
+      <c r="H170" s="8">
+        <v>141</v>
+      </c>
+      <c r="I170" s="8">
+        <v>141</v>
+      </c>
+      <c r="J170" s="8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="8">
+        <v>144</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D171" s="8">
+        <v>142</v>
+      </c>
+      <c r="E171" s="8">
+        <v>142</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G171" s="8">
+        <v>173</v>
+      </c>
+      <c r="H171" s="8">
+        <v>142</v>
+      </c>
+      <c r="I171" s="8">
+        <v>142</v>
+      </c>
+      <c r="J171" s="8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="8">
+        <v>145</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D172" s="8">
+        <v>143</v>
+      </c>
+      <c r="E172" s="8">
+        <v>143</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G172" s="8">
+        <v>174</v>
+      </c>
+      <c r="H172" s="8">
+        <v>143</v>
+      </c>
+      <c r="I172" s="8">
+        <v>143</v>
+      </c>
+      <c r="J172" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="8">
+        <v>146</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D173" s="8">
+        <v>144</v>
+      </c>
+      <c r="E173" s="8">
+        <v>144</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="G173" s="8">
+        <v>175</v>
+      </c>
+      <c r="H173" s="8">
+        <v>144</v>
+      </c>
+      <c r="I173" s="8">
+        <v>144</v>
+      </c>
+      <c r="J173" s="8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="8">
+        <v>147</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D174" s="8">
+        <v>145</v>
+      </c>
+      <c r="E174" s="8">
+        <v>145</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G174" s="8">
+        <v>176</v>
+      </c>
+      <c r="H174" s="8">
+        <v>145</v>
+      </c>
+      <c r="I174" s="8">
+        <v>145</v>
+      </c>
+      <c r="J174" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="8">
+        <v>148</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D175" s="8">
+        <v>146</v>
+      </c>
+      <c r="E175" s="8">
+        <v>146</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G175" s="8">
+        <v>177</v>
+      </c>
+      <c r="H175" s="8">
+        <v>146</v>
+      </c>
+      <c r="I175" s="8">
+        <v>146</v>
+      </c>
+      <c r="J175" s="8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="8">
+        <v>149</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D176" s="8">
+        <v>147</v>
+      </c>
+      <c r="E176" s="8">
+        <v>147</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G176" s="8">
+        <v>178</v>
+      </c>
+      <c r="H176" s="8">
+        <v>147</v>
+      </c>
+      <c r="I176" s="8">
+        <v>147</v>
+      </c>
+      <c r="J176" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="8">
+        <v>150</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D177" s="8">
+        <v>148</v>
+      </c>
+      <c r="E177" s="8">
+        <v>148</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="G177" s="8">
+        <v>179</v>
+      </c>
+      <c r="H177" s="8">
+        <v>148</v>
+      </c>
+      <c r="I177" s="8">
+        <v>148</v>
+      </c>
+      <c r="J177" s="8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="8">
+        <v>151</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="8">
+        <v>149</v>
+      </c>
+      <c r="E178" s="8">
+        <v>149</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G178" s="8">
+        <v>180</v>
+      </c>
+      <c r="H178" s="8">
+        <v>149</v>
+      </c>
+      <c r="I178" s="8">
+        <v>149</v>
+      </c>
+      <c r="J178" s="8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="8">
+        <v>152</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D179" s="8">
+        <v>150</v>
+      </c>
+      <c r="E179" s="8">
+        <v>150</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G179" s="8">
+        <v>181</v>
+      </c>
+      <c r="H179" s="8">
+        <v>150</v>
+      </c>
+      <c r="I179" s="8">
+        <v>150</v>
+      </c>
+      <c r="J179" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="8">
+        <v>153</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D180" s="8">
+        <v>151</v>
+      </c>
+      <c r="E180" s="8">
+        <v>151</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G180" s="8">
+        <v>182</v>
+      </c>
+      <c r="H180" s="8">
+        <v>151</v>
+      </c>
+      <c r="I180" s="8">
+        <v>151</v>
+      </c>
+      <c r="J180" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="8">
+        <v>154</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D181" s="8">
+        <v>152</v>
+      </c>
+      <c r="E181" s="8">
+        <v>152</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G181" s="8">
+        <v>183</v>
+      </c>
+      <c r="H181" s="8">
+        <v>152</v>
+      </c>
+      <c r="I181" s="8">
+        <v>152</v>
+      </c>
+      <c r="J181" s="8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B182" s="8">
+        <v>155</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D182" s="8">
+        <v>153</v>
+      </c>
+      <c r="E182" s="8">
+        <v>153</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G182" s="8">
+        <v>184</v>
+      </c>
+      <c r="H182" s="8">
+        <v>153</v>
+      </c>
+      <c r="I182" s="8">
+        <v>153</v>
+      </c>
+      <c r="J182" s="8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B183" s="8">
+        <v>156</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D183" s="8">
+        <v>154</v>
+      </c>
+      <c r="E183" s="8">
+        <v>154</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G183" s="8">
+        <v>185</v>
+      </c>
+      <c r="H183" s="8">
+        <v>154</v>
+      </c>
+      <c r="I183" s="8">
+        <v>154</v>
+      </c>
+      <c r="J183" s="8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B184" s="8">
+        <v>157</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D184" s="8">
+        <v>155</v>
+      </c>
+      <c r="E184" s="8">
+        <v>155</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G184" s="8">
+        <v>186</v>
+      </c>
+      <c r="H184" s="8">
+        <v>155</v>
+      </c>
+      <c r="I184" s="8">
+        <v>155</v>
+      </c>
+      <c r="J184" s="8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="8">
+        <v>158</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D185" s="8">
+        <v>156</v>
+      </c>
+      <c r="E185" s="8">
+        <v>156</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G185" s="8">
+        <v>187</v>
+      </c>
+      <c r="H185" s="8">
+        <v>156</v>
+      </c>
+      <c r="I185" s="8">
+        <v>156</v>
+      </c>
+      <c r="J185" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="8">
+        <v>159</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D186" s="8">
+        <v>157</v>
+      </c>
+      <c r="E186" s="8">
+        <v>157</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G186" s="8">
+        <v>188</v>
+      </c>
+      <c r="H186" s="8">
+        <v>157</v>
+      </c>
+      <c r="I186" s="8">
+        <v>157</v>
+      </c>
+      <c r="J186" s="8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" s="8">
+        <v>160</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D187" s="8">
+        <v>158</v>
+      </c>
+      <c r="E187" s="8">
+        <v>158</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="G187" s="8">
+        <v>189</v>
+      </c>
+      <c r="H187" s="8">
+        <v>158</v>
+      </c>
+      <c r="I187" s="8">
+        <v>158</v>
+      </c>
+      <c r="J187" s="8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="8">
+        <v>161</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D188" s="8">
+        <v>159</v>
+      </c>
+      <c r="E188" s="8">
+        <v>159</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G188" s="8">
+        <v>190</v>
+      </c>
+      <c r="H188" s="8">
+        <v>159</v>
+      </c>
+      <c r="I188" s="8">
+        <v>159</v>
+      </c>
+      <c r="J188" s="8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B189" s="8">
+        <v>162</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D189" s="8">
+        <v>160</v>
+      </c>
+      <c r="E189" s="8">
+        <v>160</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G189" s="8">
+        <v>191</v>
+      </c>
+      <c r="H189" s="8">
+        <v>160</v>
+      </c>
+      <c r="I189" s="8">
+        <v>160</v>
+      </c>
+      <c r="J189" s="8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="8">
+        <v>163</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D190" s="8">
+        <v>161</v>
+      </c>
+      <c r="E190" s="8">
+        <v>161</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G190" s="8">
+        <v>192</v>
+      </c>
+      <c r="H190" s="8">
+        <v>161</v>
+      </c>
+      <c r="I190" s="8">
+        <v>161</v>
+      </c>
+      <c r="J190" s="8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="8">
+        <v>164</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D191" s="8">
+        <v>162</v>
+      </c>
+      <c r="E191" s="8">
+        <v>162</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G191" s="8">
+        <v>193</v>
+      </c>
+      <c r="H191" s="8">
+        <v>162</v>
+      </c>
+      <c r="I191" s="8">
+        <v>162</v>
+      </c>
+      <c r="J191" s="8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="8">
+        <v>165</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D192" s="8">
+        <v>163</v>
+      </c>
+      <c r="E192" s="8">
+        <v>163</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G192" s="8">
+        <v>194</v>
+      </c>
+      <c r="H192" s="8">
+        <v>163</v>
+      </c>
+      <c r="I192" s="8">
+        <v>163</v>
+      </c>
+      <c r="J192" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="8">
+        <v>166</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D193" s="8">
+        <v>164</v>
+      </c>
+      <c r="E193" s="8">
+        <v>164</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G193" s="8">
+        <v>195</v>
+      </c>
+      <c r="H193" s="8">
+        <v>164</v>
+      </c>
+      <c r="I193" s="8">
+        <v>164</v>
+      </c>
+      <c r="J193" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" s="8">
+        <v>167</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D194" s="8">
+        <v>165</v>
+      </c>
+      <c r="E194" s="8">
+        <v>165</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="G194" s="8">
+        <v>196</v>
+      </c>
+      <c r="H194" s="8">
+        <v>165</v>
+      </c>
+      <c r="I194" s="8">
+        <v>165</v>
+      </c>
+      <c r="J194" s="8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195" s="8">
+        <v>168</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D195" s="8">
+        <v>166</v>
+      </c>
+      <c r="E195" s="8">
+        <v>166</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G195" s="8">
+        <v>197</v>
+      </c>
+      <c r="H195" s="8">
+        <v>166</v>
+      </c>
+      <c r="I195" s="8">
+        <v>166</v>
+      </c>
+      <c r="J195" s="8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" s="8">
+        <v>169</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D196" s="8">
+        <v>167</v>
+      </c>
+      <c r="E196" s="8">
+        <v>167</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G196" s="8">
+        <v>198</v>
+      </c>
+      <c r="H196" s="8">
+        <v>167</v>
+      </c>
+      <c r="I196" s="8">
+        <v>167</v>
+      </c>
+      <c r="J196" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B197" s="8">
+        <v>170</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D197" s="8">
+        <v>168</v>
+      </c>
+      <c r="E197" s="8">
+        <v>168</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="G197" s="8">
+        <v>199</v>
+      </c>
+      <c r="H197" s="8">
+        <v>168</v>
+      </c>
+      <c r="I197" s="8">
+        <v>168</v>
+      </c>
+      <c r="J197" s="8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="8">
+        <v>171</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D198" s="8">
+        <v>169</v>
+      </c>
+      <c r="E198" s="8">
+        <v>169</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G198" s="8">
+        <v>200</v>
+      </c>
+      <c r="H198" s="8">
+        <v>169</v>
+      </c>
+      <c r="I198" s="8">
+        <v>169</v>
+      </c>
+      <c r="J198" s="8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B199" s="8">
+        <v>172</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D199" s="8">
+        <v>170</v>
+      </c>
+      <c r="E199" s="8">
+        <v>170</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G199" s="8">
+        <v>201</v>
+      </c>
+      <c r="H199" s="8">
+        <v>170</v>
+      </c>
+      <c r="I199" s="8">
+        <v>170</v>
+      </c>
+      <c r="J199" s="8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B200" s="8">
+        <v>173</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D200" s="8">
+        <v>171</v>
+      </c>
+      <c r="E200" s="8">
+        <v>171</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G200" s="8">
+        <v>202</v>
+      </c>
+      <c r="H200" s="8">
+        <v>171</v>
+      </c>
+      <c r="I200" s="8">
+        <v>171</v>
+      </c>
+      <c r="J200" s="8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="8">
+        <v>174</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D201" s="8">
+        <v>172</v>
+      </c>
+      <c r="E201" s="8">
+        <v>172</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G201" s="8">
+        <v>203</v>
+      </c>
+      <c r="H201" s="8">
+        <v>172</v>
+      </c>
+      <c r="I201" s="8">
+        <v>172</v>
+      </c>
+      <c r="J201" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202" s="8">
+        <v>175</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D202" s="8">
+        <v>173</v>
+      </c>
+      <c r="E202" s="8">
+        <v>173</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G202" s="8">
+        <v>204</v>
+      </c>
+      <c r="H202" s="8">
+        <v>173</v>
+      </c>
+      <c r="I202" s="8">
+        <v>173</v>
+      </c>
+      <c r="J202" s="8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203" s="8">
+        <v>176</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D203" s="8">
+        <v>174</v>
+      </c>
+      <c r="E203" s="8">
+        <v>174</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="G203" s="8">
+        <v>205</v>
+      </c>
+      <c r="H203" s="8">
+        <v>174</v>
+      </c>
+      <c r="I203" s="8">
+        <v>174</v>
+      </c>
+      <c r="J203" s="8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204" s="8">
+        <v>177</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D204" s="8">
+        <v>175</v>
+      </c>
+      <c r="E204" s="8">
+        <v>175</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G204" s="8">
+        <v>206</v>
+      </c>
+      <c r="H204" s="8">
+        <v>175</v>
+      </c>
+      <c r="I204" s="8">
+        <v>175</v>
+      </c>
+      <c r="J204" s="8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="8">
+        <v>178</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D205" s="8">
+        <v>176</v>
+      </c>
+      <c r="E205" s="8">
+        <v>176</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G205" s="8">
+        <v>207</v>
+      </c>
+      <c r="H205" s="8">
+        <v>176</v>
+      </c>
+      <c r="I205" s="8">
+        <v>176</v>
+      </c>
+      <c r="J205" s="8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206" s="8">
+        <v>179</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D206" s="8">
+        <v>177</v>
+      </c>
+      <c r="E206" s="8">
+        <v>177</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G206" s="8">
+        <v>208</v>
+      </c>
+      <c r="H206" s="8">
+        <v>177</v>
+      </c>
+      <c r="I206" s="8">
+        <v>177</v>
+      </c>
+      <c r="J206" s="8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207" s="8">
+        <v>180</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D207" s="8">
+        <v>178</v>
+      </c>
+      <c r="E207" s="8">
+        <v>178</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G207" s="8">
+        <v>209</v>
+      </c>
+      <c r="H207" s="8">
+        <v>178</v>
+      </c>
+      <c r="I207" s="8">
+        <v>178</v>
+      </c>
+      <c r="J207" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="8">
+        <v>181</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D208" s="8">
+        <v>179</v>
+      </c>
+      <c r="E208" s="8">
+        <v>179</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G208" s="8">
+        <v>210</v>
+      </c>
+      <c r="H208" s="8">
+        <v>179</v>
+      </c>
+      <c r="I208" s="8">
+        <v>179</v>
+      </c>
+      <c r="J208" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209" s="8">
+        <v>182</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D209" s="8">
+        <v>180</v>
+      </c>
+      <c r="E209" s="8">
+        <v>180</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G209" s="8">
+        <v>211</v>
+      </c>
+      <c r="H209" s="8">
+        <v>180</v>
+      </c>
+      <c r="I209" s="8">
+        <v>180</v>
+      </c>
+      <c r="J209" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210" s="8">
+        <v>183</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D210" s="8">
+        <v>181</v>
+      </c>
+      <c r="E210" s="8">
+        <v>181</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G210" s="8">
+        <v>212</v>
+      </c>
+      <c r="H210" s="8">
+        <v>181</v>
+      </c>
+      <c r="I210" s="8">
+        <v>181</v>
+      </c>
+      <c r="J210" s="8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211" s="8">
+        <v>184</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D211" s="8">
+        <v>182</v>
+      </c>
+      <c r="E211" s="8">
+        <v>182</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G211" s="8">
+        <v>213</v>
+      </c>
+      <c r="H211" s="8">
+        <v>182</v>
+      </c>
+      <c r="I211" s="8">
+        <v>182</v>
+      </c>
+      <c r="J211" s="8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212" s="8">
+        <v>185</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D212" s="8">
+        <v>183</v>
+      </c>
+      <c r="E212" s="8">
+        <v>183</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G212" s="8">
+        <v>214</v>
+      </c>
+      <c r="H212" s="8">
+        <v>183</v>
+      </c>
+      <c r="I212" s="8">
+        <v>183</v>
+      </c>
+      <c r="J212" s="8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213" s="8">
+        <v>186</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D213" s="8">
+        <v>184</v>
+      </c>
+      <c r="E213" s="8">
+        <v>184</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G213" s="8">
+        <v>215</v>
+      </c>
+      <c r="H213" s="8">
+        <v>184</v>
+      </c>
+      <c r="I213" s="8">
+        <v>184</v>
+      </c>
+      <c r="J213" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214" s="8">
+        <v>187</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D214" s="8">
+        <v>185</v>
+      </c>
+      <c r="E214" s="8">
+        <v>185</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G214" s="8">
+        <v>216</v>
+      </c>
+      <c r="H214" s="8">
+        <v>185</v>
+      </c>
+      <c r="I214" s="8">
+        <v>185</v>
+      </c>
+      <c r="J214" s="8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" s="8">
+        <v>188</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D215" s="8">
+        <v>186</v>
+      </c>
+      <c r="E215" s="8">
+        <v>186</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G215" s="8">
+        <v>217</v>
+      </c>
+      <c r="H215" s="8">
+        <v>186</v>
+      </c>
+      <c r="I215" s="8">
+        <v>186</v>
+      </c>
+      <c r="J215" s="8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="8">
+        <v>189</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D216" s="8">
+        <v>187</v>
+      </c>
+      <c r="E216" s="8">
+        <v>187</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G216" s="8">
+        <v>218</v>
+      </c>
+      <c r="H216" s="8">
+        <v>187</v>
+      </c>
+      <c r="I216" s="8">
+        <v>187</v>
+      </c>
+      <c r="J216" s="8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" s="8">
+        <v>190</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D217" s="8">
+        <v>188</v>
+      </c>
+      <c r="E217" s="8">
+        <v>188</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="G217" s="8">
+        <v>219</v>
+      </c>
+      <c r="H217" s="8">
+        <v>188</v>
+      </c>
+      <c r="I217" s="8">
+        <v>188</v>
+      </c>
+      <c r="J217" s="8">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="8">
+        <v>191</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D218" s="8">
+        <v>189</v>
+      </c>
+      <c r="E218" s="8">
+        <v>189</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G218" s="8">
+        <v>220</v>
+      </c>
+      <c r="H218" s="8">
+        <v>189</v>
+      </c>
+      <c r="I218" s="8">
+        <v>189</v>
+      </c>
+      <c r="J218" s="8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="8">
+        <v>192</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D219" s="8">
+        <v>190</v>
+      </c>
+      <c r="E219" s="8">
+        <v>190</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="G219" s="8">
+        <v>221</v>
+      </c>
+      <c r="H219" s="8">
+        <v>190</v>
+      </c>
+      <c r="I219" s="8">
+        <v>190</v>
+      </c>
+      <c r="J219" s="8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="8">
+        <v>193</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D220" s="8">
+        <v>191</v>
+      </c>
+      <c r="E220" s="8">
+        <v>191</v>
+      </c>
+      <c r="F220" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G220" s="8">
+        <v>222</v>
+      </c>
+      <c r="H220" s="8">
+        <v>191</v>
+      </c>
+      <c r="I220" s="8">
+        <v>191</v>
+      </c>
+      <c r="J220" s="8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" s="8">
+        <v>194</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D221" s="8">
+        <v>192</v>
+      </c>
+      <c r="E221" s="8">
+        <v>192</v>
+      </c>
+      <c r="F221" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="G221" s="8">
+        <v>223</v>
+      </c>
+      <c r="H221" s="8">
+        <v>192</v>
+      </c>
+      <c r="I221" s="8">
+        <v>192</v>
+      </c>
+      <c r="J221" s="8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="8">
+        <v>195</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D222" s="8">
+        <v>193</v>
+      </c>
+      <c r="E222" s="8">
+        <v>193</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="G222" s="8">
+        <v>224</v>
+      </c>
+      <c r="H222" s="8">
+        <v>193</v>
+      </c>
+      <c r="I222" s="8">
+        <v>193</v>
+      </c>
+      <c r="J222" s="8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="8">
+        <v>196</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D223" s="8">
+        <v>194</v>
+      </c>
+      <c r="E223" s="8">
+        <v>194</v>
+      </c>
+      <c r="F223" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="G223" s="8">
+        <v>225</v>
+      </c>
+      <c r="H223" s="8">
+        <v>194</v>
+      </c>
+      <c r="I223" s="8">
+        <v>194</v>
+      </c>
+      <c r="J223" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="8">
+        <v>197</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D224" s="8">
+        <v>195</v>
+      </c>
+      <c r="E224" s="8">
+        <v>195</v>
+      </c>
+      <c r="F224" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G224" s="8">
+        <v>226</v>
+      </c>
+      <c r="H224" s="8">
+        <v>195</v>
+      </c>
+      <c r="I224" s="8">
+        <v>195</v>
+      </c>
+      <c r="J224" s="8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="8">
+        <v>198</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D225" s="8">
+        <v>196</v>
+      </c>
+      <c r="E225" s="8">
+        <v>196</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G225" s="8">
+        <v>227</v>
+      </c>
+      <c r="H225" s="8">
+        <v>196</v>
+      </c>
+      <c r="I225" s="8">
+        <v>196</v>
+      </c>
+      <c r="J225" s="8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="8">
+        <v>199</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D226" s="8">
+        <v>197</v>
+      </c>
+      <c r="E226" s="8">
+        <v>197</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G226" s="8">
+        <v>228</v>
+      </c>
+      <c r="H226" s="8">
+        <v>197</v>
+      </c>
+      <c r="I226" s="8">
+        <v>197</v>
+      </c>
+      <c r="J226" s="8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" s="8">
+        <v>200</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D227" s="8">
+        <v>198</v>
+      </c>
+      <c r="E227" s="8">
+        <v>198</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G227" s="8">
+        <v>229</v>
+      </c>
+      <c r="H227" s="8">
+        <v>198</v>
+      </c>
+      <c r="I227" s="8">
+        <v>198</v>
+      </c>
+      <c r="J227" s="8">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
